--- a/doc/java中级试做式样书20190206.xlsx
+++ b/doc/java中级试做式样书20190206.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassSampleSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D159BC3E-F1E1-9446-8D0E-CCB6C48B4238}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CB826CA8-E7D6-1044-BFCE-0ECF4BDBF9AF}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="1280" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
+    <workbookView xWindow="5360" yWindow="1280" windowWidth="28240" windowHeight="17440" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
   </bookViews>
   <sheets>
     <sheet name="数学建模" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="89">
   <si>
     <t>契约ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,14 @@
   </si>
   <si>
     <t>›</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会社ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,14 +1055,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:colOff>281330</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1069,8 +1077,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1930400" y="2070100"/>
-          <a:ext cx="0" cy="1638300"/>
+          <a:off x="1107311" y="2250633"/>
+          <a:ext cx="1930" cy="1417257"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1100,14 +1108,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:colOff>586772</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1122,8 +1130,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7188200" y="1866900"/>
-          <a:ext cx="12700" cy="1892300"/>
+          <a:off x="6379580" y="2298861"/>
+          <a:ext cx="2572" cy="1419829"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2296,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB3C938-E96B-0748-B609-B11225872B2D}">
   <dimension ref="B2:M53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2398,8 +2406,12 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -2411,8 +2423,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:13">
@@ -2703,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2F298-F814-AA41-A4D0-B91574A5D1F7}">
   <dimension ref="B2:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M49"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/doc/java中级试做式样书20190206.xlsx
+++ b/doc/java中级试做式样书20190206.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassSampleSource/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/开发环境/git/JavaMiddleClassSampleSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CB826CA8-E7D6-1044-BFCE-0ECF4BDBF9AF}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4C313B98-1FD0-DD4B-9135-482C6B3B8354}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="1280" windowWidth="28240" windowHeight="17440" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15960" activeTab="1" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
   </bookViews>
   <sheets>
     <sheet name="数学建模" sheetId="1" r:id="rId1"/>
     <sheet name="Java中级式样书20190206" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">数学建模!$A$1:$P$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">数学建模!$A$1:$P$60</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
   <si>
     <t>契约ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>契约情报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索画面------------------------------</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +379,86 @@
   </si>
   <si>
     <t>会社ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约技术者信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约会社信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约情报检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终了时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终了时间，指契约实际终止的时间，系统以此判断该契约是否活着，同删除flg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约ID，指系统自动对契约数据的采番ID，不受认为控制，是区别两契约的唯一标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约CD，指人为给契约的编号指定，实际就是契约的名字。也是唯一的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体命名规则受各公司制约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间，指契约有效的开始日，并不是登陆的日时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约ID，用来表示双方的唯一标示，只在契约数据中有效，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与技术者ID，会社ID个字分别建立关联数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终了日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（隐藏项）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照按钮会直接启动缩小版的【契约者检索画面】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是这样就复杂了，可以直接输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（真正项目的话，契约双方需要检索入力。这样更安全。防止输入错误。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处暂时不用实装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（真正提交的时候，需要契约ID来进行操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（但，它与用户不发生实际关系，所以就隐藏了）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,9 +783,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -738,9 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -814,10 +884,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,14 +927,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>104493</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -864,9 +949,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2603500" y="431800"/>
-          <a:ext cx="2298700" cy="939800"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1760316" y="1109241"/>
+          <a:ext cx="22507" cy="1655501"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -894,16 +979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>104494</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -917,9 +1002,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6604000" y="381000"/>
-          <a:ext cx="2578100" cy="1003300"/>
+        <a:xfrm flipV="1">
+          <a:off x="8380714" y="1036899"/>
+          <a:ext cx="2894" cy="1740544"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -949,14 +1034,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>659114</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -971,8 +1056,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2527300" y="1600200"/>
-          <a:ext cx="1562100" cy="2120900"/>
+          <a:off x="1706623" y="4268165"/>
+          <a:ext cx="1436225" cy="819070"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1002,13 +1087,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1055,13 +1140,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>40190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>281330</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1108,13 +1193,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>88418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586772</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1161,13 +1246,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>55033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1260,13 +1345,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>46567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>46567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1359,13 +1444,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>579967</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1464,13 +1549,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1515,13 +1600,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1566,13 +1651,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1613,6 +1698,112 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>747531</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>699303</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>72342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDE2497-D441-934B-966A-820CB6780485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2403354" y="1133354"/>
+          <a:ext cx="1607595" cy="546583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233102</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>771645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直线箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A74233-2516-614A-BF03-03EC7CAE570A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5200570" y="651076"/>
+          <a:ext cx="3022278" cy="1036899"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1622,13 +1813,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1718,13 +1909,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1814,13 +2005,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1910,13 +2101,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1996,6 +2187,402 @@
               </a:solidFill>
             </a:rPr>
             <a:t>返回</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587203</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>996881</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>81935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41446183-B7D1-3949-9589-3F7AEF9E6365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1406558" y="12727312"/>
+          <a:ext cx="5639893" cy="546236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>隐藏项</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44655</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600860</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>109247</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37882651-A3F0-C947-8837-E3C2BEAE9B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5274870" y="19691828"/>
+          <a:ext cx="556205" cy="327742"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44655</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>136559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600860</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>27312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E92F00-8069-8D4D-BC31-F383565E0E15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5274870" y="20483871"/>
+          <a:ext cx="556205" cy="327742"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>873979</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>177527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>559893</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>109248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9A847D-5C4B-7943-91A2-06FB81B40F1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2512689" y="20961828"/>
+          <a:ext cx="4096774" cy="368710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>隐藏项</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>805699</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>150215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>491613</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>81936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B269A4E4-F336-9D47-B295-1BE768DE2C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2444409" y="20060538"/>
+          <a:ext cx="4096774" cy="368710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>隐藏项</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2302,408 +2889,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB3C938-E96B-0748-B609-B11225872B2D}">
-  <dimension ref="B2:M53"/>
+  <dimension ref="B3:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A44" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="F2" t="s">
+    <row r="3" spans="2:13">
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="C4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="C5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
-      <c r="F3" t="s">
+    <row r="10" spans="2:13">
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="1" t="s">
+    <row r="15" spans="2:13">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="6" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="1" t="s">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="6" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="1" t="s">
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="6" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="1" t="s">
+      <c r="L17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="6" t="s">
+      <c r="F19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="E12" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="E13" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="E14" s="2" t="s">
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="H28" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" t="s">
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="H21" t="s">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="I21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="I29" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="H30" t="s">
         <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
+        <v>20</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>32</v>
+      </c>
       <c r="H31" t="s">
         <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="H32" t="s">
         <v>11</v>
       </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="3"/>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" t="s">
+      <c r="H33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="21">
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="H34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="2:10" ht="21">
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" ht="21">
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="21">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="H41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="2:10" ht="21">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="2:10" ht="21">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="21">
-      <c r="B39" s="9" t="s">
+    <row r="46" spans="2:10" ht="21">
+      <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="2:10" ht="21">
-      <c r="B40" s="9" t="s">
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="2:10" ht="21">
+      <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="2:10" ht="21">
-      <c r="B41" s="9" t="s">
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="2:10" ht="21">
+      <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="46" spans="2:10" ht="21">
-      <c r="B46" s="9" t="s">
+      <c r="C48" s="8"/>
+    </row>
+    <row r="53" spans="2:3" ht="21">
+      <c r="B53" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="2:10" ht="21">
-      <c r="B47" s="9" t="s">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="2:3" ht="21">
+      <c r="B54" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="2:10" ht="21">
-      <c r="B48" s="9" t="s">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="2:3" ht="21">
+      <c r="B55" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="2:3" ht="21">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="51" spans="2:3" ht="21">
-      <c r="B51" s="9" t="s">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="2:3" ht="21">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="58" spans="2:3" ht="21">
+      <c r="B58" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="21">
-      <c r="B52" s="9" t="s">
+    <row r="59" spans="2:3" ht="21">
+      <c r="B59" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="21">
-      <c r="B53" s="9" t="s">
+    <row r="60" spans="2:3" ht="21">
+      <c r="B60" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2717,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2F298-F814-AA41-A4D0-B91574A5D1F7}">
-  <dimension ref="B2:M95"/>
+  <dimension ref="B2:M102"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2731,1244 +3340,1363 @@
   <sheetData>
     <row r="2" spans="2:13" ht="17" thickBot="1">
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="2:13" ht="31">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="2:13" ht="17" thickBot="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="2:13" ht="17" thickBot="1">
+      <c r="B9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1">
+      <c r="B10" s="22"/>
+      <c r="C10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="2:13" ht="17" thickBot="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="2:13" ht="17" thickBot="1">
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="2:13" ht="17" thickBot="1">
+      <c r="B13" s="22"/>
+      <c r="D13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="2:13" ht="17" thickBot="1">
+      <c r="B14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="2:13" ht="17" thickBot="1">
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" ht="17" thickBot="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="2:13" ht="17" thickBot="1">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="2:13" ht="31">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-    </row>
-    <row r="5" spans="2:13" ht="17" thickBot="1">
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-    </row>
-    <row r="6" spans="2:13" ht="17" thickBot="1">
-      <c r="B6" s="24"/>
-      <c r="C6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
-    </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="2:13" ht="17" thickBot="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1">
-      <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
-    </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1">
-      <c r="B10" s="24"/>
-      <c r="C10" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13">
-        <v>45</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
-    </row>
-    <row r="11" spans="2:13" ht="17" thickBot="1">
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-    </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1">
-      <c r="B13" s="24"/>
-      <c r="D13" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1">
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="2:13" ht="17" thickBot="1">
-      <c r="B15" s="24"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="24"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" spans="2:13" ht="17" thickBot="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-    </row>
-    <row r="18" spans="2:13" ht="17" thickBot="1">
-      <c r="B18" s="24"/>
-      <c r="C18" s="26" t="s">
+      <c r="D18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="2:13" ht="17" thickBot="1">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-    </row>
-    <row r="19" spans="2:13" ht="17" thickBot="1">
-      <c r="B19" s="24"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="2:13" ht="17" thickBot="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="2:13" ht="17" thickBot="1">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="22"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="2:13" ht="17" thickBot="1">
+      <c r="B23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="2:13" ht="17" thickBot="1">
+      <c r="B24" s="22"/>
+      <c r="C24" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-    </row>
-    <row r="20" spans="2:13" ht="17" thickBot="1">
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-    </row>
-    <row r="21" spans="2:13" ht="17" thickBot="1">
-      <c r="B21" s="24"/>
-      <c r="C21" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-    </row>
-    <row r="23" spans="2:13" ht="17" thickBot="1">
-      <c r="B23" s="24"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
-    </row>
-    <row r="24" spans="2:13" ht="17" thickBot="1">
-      <c r="B24" s="24"/>
-      <c r="C24" s="26" t="s">
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="15" t="s">
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="2:13" ht="17" thickBot="1">
+      <c r="B25" s="22"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
-    </row>
-    <row r="25" spans="2:13" ht="17" thickBot="1">
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="2:13" ht="17" thickBot="1">
+      <c r="B26" s="22"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-    </row>
-    <row r="26" spans="2:13" ht="17" thickBot="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="2:13" ht="17" thickBot="1">
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="17" thickBot="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="22"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+    </row>
+    <row r="30" spans="2:13" ht="17" thickBot="1">
+      <c r="B30" s="22"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25"/>
+    </row>
+    <row r="31" spans="2:13" ht="17" thickBot="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="2:13" ht="17" thickBot="1">
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="2:13" ht="17" thickBot="1">
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="27"/>
-    </row>
-    <row r="31" spans="2:13" ht="17" thickBot="1">
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
       <c r="D31" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25"/>
     </row>
     <row r="32" spans="2:13" ht="17" thickBot="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="27"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="2:13" ht="17" thickBot="1">
-      <c r="B33" s="24"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="25"/>
+    </row>
+    <row r="34" spans="2:13" ht="17" thickBot="1">
+      <c r="B34" s="22"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25"/>
+    </row>
+    <row r="35" spans="2:13" ht="17" thickBot="1">
+      <c r="B35" s="22"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
+    </row>
+    <row r="36" spans="2:13" ht="17" thickBot="1">
+      <c r="B36" s="22"/>
+      <c r="C36" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25"/>
+    </row>
+    <row r="37" spans="2:13" ht="17" thickBot="1">
+      <c r="B37" s="22"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+    </row>
+    <row r="38" spans="2:13" ht="17" thickBot="1">
+      <c r="B38" s="22"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
+    </row>
+    <row r="39" spans="2:13" ht="17" thickBot="1">
+      <c r="B39" s="22"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="25"/>
+    </row>
+    <row r="40" spans="2:13" ht="17" thickBot="1">
+      <c r="B40" s="22"/>
+      <c r="C40" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+    </row>
+    <row r="41" spans="2:13" ht="17" thickBot="1">
+      <c r="B41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+    </row>
+    <row r="42" spans="2:13" ht="17" thickBot="1">
+      <c r="B42" s="22"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="22"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="25"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="22"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="25"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="22"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="25"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="22"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="25"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="22"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="25"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="22"/>
+      <c r="C48" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" s="25"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="22"/>
+      <c r="C49" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="L49" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" s="25"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="22"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="25"/>
+    </row>
+    <row r="51" spans="2:13" ht="17" thickBot="1">
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="29"/>
+    </row>
+    <row r="55" spans="2:13" ht="17" thickBot="1">
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="2:13" ht="31">
+      <c r="B57" s="22"/>
+      <c r="C57" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="22"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="2:13" ht="17" thickBot="1">
+      <c r="B59" s="22"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="25"/>
+      <c r="J59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="17" thickBot="1">
+      <c r="B60" s="22"/>
+      <c r="C60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="25"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="17" thickBot="1">
+      <c r="B61" s="22"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="2:13" ht="17" thickBot="1">
+      <c r="B62" s="22"/>
+      <c r="C62" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="25"/>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="17" thickBot="1">
+      <c r="B63" s="22"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
+      <c r="K63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="17" thickBot="1">
+      <c r="B64" s="22"/>
+      <c r="C64" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="12">
+        <v>45</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="2:10" ht="17" thickBot="1">
+      <c r="B65" s="22"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="J65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="17" thickBot="1">
+      <c r="B66" s="22"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="J66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="17" thickBot="1">
+      <c r="B67" s="22"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="2:10" ht="17" thickBot="1">
+      <c r="B68" s="22"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" s="24"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="2:10" ht="17" thickBot="1">
+      <c r="B69" s="22"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="22"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="2:10" ht="17" thickBot="1">
+      <c r="B71" s="22"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="2:10" ht="17" thickBot="1">
+      <c r="B72" s="22"/>
+      <c r="C72" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="2:10" ht="17" thickBot="1">
+      <c r="B73" s="22"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="22"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="2:10" ht="17" thickBot="1">
+      <c r="B75" s="22"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="2:10" ht="17" thickBot="1">
+      <c r="B76" s="22"/>
+      <c r="C76" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25"/>
+      <c r="J76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="22"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="22"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="2:10" ht="17" thickBot="1">
+      <c r="B79" s="22"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="2:10" ht="17" thickBot="1">
+      <c r="B80" s="22"/>
+      <c r="C80" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="12">
+        <v>1</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25"/>
+    </row>
+    <row r="81" spans="2:11" ht="17" thickBot="1">
+      <c r="B81" s="22"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="24"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="2:11" ht="17" thickBot="1">
+      <c r="B82" s="22"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="2:11" ht="17" thickBot="1">
+      <c r="B83" s="22"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="25"/>
+    </row>
+    <row r="84" spans="2:11" ht="17" thickBot="1">
+      <c r="B84" s="22"/>
+      <c r="C84" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="25"/>
+      <c r="J84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="17" thickBot="1">
+      <c r="B85" s="22"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="25"/>
+    </row>
+    <row r="86" spans="2:11" ht="17" thickBot="1">
+      <c r="B86" s="22"/>
+      <c r="C86" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="25"/>
+    </row>
+    <row r="87" spans="2:11" ht="17" thickBot="1">
+      <c r="B87" s="22"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="25"/>
+    </row>
+    <row r="88" spans="2:11" ht="17" thickBot="1">
+      <c r="B88" s="22"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="25"/>
+    </row>
+    <row r="89" spans="2:11" ht="17" thickBot="1">
+      <c r="B89" s="22"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="25"/>
+    </row>
+    <row r="90" spans="2:11" ht="17" thickBot="1">
+      <c r="B90" s="22"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="25"/>
+    </row>
+    <row r="91" spans="2:11" ht="17" thickBot="1">
+      <c r="B91" s="22"/>
+      <c r="C91" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="30"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="25"/>
+      <c r="J91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="17" thickBot="1">
+      <c r="B92" s="22"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="25"/>
+      <c r="J92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="17" thickBot="1">
+      <c r="B93" s="22"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="32"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="25"/>
+      <c r="J93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="17" thickBot="1">
+      <c r="B94" s="22"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="25"/>
+      <c r="K94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="17" thickBot="1">
+      <c r="B95" s="22"/>
+      <c r="C95" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F95" s="30"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="25"/>
+    </row>
+    <row r="96" spans="2:11" ht="17" thickBot="1">
+      <c r="B96" s="22"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="25"/>
+      <c r="J96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" ht="17" thickBot="1">
+      <c r="B97" s="22"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27"/>
-    </row>
-    <row r="34" spans="2:13" ht="17" thickBot="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="27"/>
-    </row>
-    <row r="35" spans="2:13" ht="17" thickBot="1">
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="27"/>
-    </row>
-    <row r="36" spans="2:13" ht="17" thickBot="1">
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27"/>
-    </row>
-    <row r="37" spans="2:13" ht="17" thickBot="1">
-      <c r="B37" s="24"/>
-      <c r="C37" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="27"/>
-    </row>
-    <row r="38" spans="2:13" ht="17" thickBot="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="27"/>
-    </row>
-    <row r="39" spans="2:13" ht="17" thickBot="1">
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="27"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="24"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="27"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="27"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="24"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="27"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="24"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="27"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="24"/>
-      <c r="C45" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L45" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="24"/>
-      <c r="C46" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K46" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="L46" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M46" s="27"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="24"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="27"/>
-    </row>
-    <row r="48" spans="2:13" ht="17" thickBot="1">
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="31"/>
-    </row>
-    <row r="52" spans="2:8" ht="17" thickBot="1">
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="23"/>
-    </row>
-    <row r="54" spans="2:8" ht="31">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="24"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
-    </row>
-    <row r="56" spans="2:8" ht="17" thickBot="1">
-      <c r="B56" s="24"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="27"/>
-    </row>
-    <row r="57" spans="2:8" ht="17" thickBot="1">
-      <c r="B57" s="24"/>
-      <c r="C57" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="43"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27"/>
-    </row>
-    <row r="58" spans="2:8" ht="17" thickBot="1">
-      <c r="B58" s="24"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="27"/>
-    </row>
-    <row r="59" spans="2:8" ht="17" thickBot="1">
-      <c r="B59" s="24"/>
-      <c r="C59" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="27"/>
-    </row>
-    <row r="60" spans="2:8" ht="17" thickBot="1">
-      <c r="B60" s="24"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
-    </row>
-    <row r="61" spans="2:8" ht="17" thickBot="1">
-      <c r="B61" s="24"/>
-      <c r="C61" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="13">
-        <v>45</v>
-      </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
-    </row>
-    <row r="62" spans="2:8" ht="17" thickBot="1">
-      <c r="B62" s="24"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" s="26"/>
-      <c r="H62" s="27"/>
-    </row>
-    <row r="63" spans="2:8" ht="17" thickBot="1">
-      <c r="B63" s="24"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
-    </row>
-    <row r="64" spans="2:8" ht="17" thickBot="1">
-      <c r="B64" s="24"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="27"/>
-    </row>
-    <row r="65" spans="2:8" ht="17" thickBot="1">
-      <c r="B65" s="24"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="27"/>
-    </row>
-    <row r="66" spans="2:8" ht="17" thickBot="1">
-      <c r="B66" s="24"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="27"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="24"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
-    </row>
-    <row r="68" spans="2:8" ht="17" thickBot="1">
-      <c r="B68" s="24"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="27"/>
-    </row>
-    <row r="69" spans="2:8" ht="17" thickBot="1">
-      <c r="B69" s="24"/>
-      <c r="C69" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-    </row>
-    <row r="70" spans="2:8" ht="17" thickBot="1">
-      <c r="B70" s="24"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="27"/>
-    </row>
-    <row r="71" spans="2:8" ht="17" thickBot="1">
-      <c r="B71" s="24"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="27"/>
-    </row>
-    <row r="72" spans="2:8" ht="17" thickBot="1">
-      <c r="B72" s="24"/>
-      <c r="C72" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="27"/>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="24"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="27"/>
-    </row>
-    <row r="74" spans="2:8" ht="17" thickBot="1">
-      <c r="B74" s="24"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="27"/>
-    </row>
-    <row r="75" spans="2:8" ht="17" thickBot="1">
-      <c r="B75" s="24"/>
-      <c r="C75" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="13">
-        <v>1</v>
-      </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="27"/>
-    </row>
-    <row r="76" spans="2:8" ht="17" thickBot="1">
-      <c r="B76" s="24"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76" s="26"/>
-      <c r="H76" s="27"/>
-    </row>
-    <row r="77" spans="2:8" ht="17" thickBot="1">
-      <c r="B77" s="24"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G77" s="26"/>
-      <c r="H77" s="27"/>
-    </row>
-    <row r="78" spans="2:8" ht="17" thickBot="1">
-      <c r="B78" s="24"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
-    </row>
-    <row r="79" spans="2:8" ht="17" thickBot="1">
-      <c r="B79" s="24"/>
-      <c r="C79" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="27"/>
-    </row>
-    <row r="80" spans="2:8" ht="17" thickBot="1">
-      <c r="B80" s="24"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="27"/>
-    </row>
-    <row r="81" spans="2:8" ht="17" thickBot="1">
-      <c r="B81" s="24"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="27"/>
-    </row>
-    <row r="82" spans="2:8" ht="17" thickBot="1">
-      <c r="B82" s="24"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
-    </row>
-    <row r="83" spans="2:8" ht="17" thickBot="1">
-      <c r="B83" s="24"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27"/>
-    </row>
-    <row r="84" spans="2:8" ht="17" thickBot="1">
-      <c r="B84" s="24"/>
-      <c r="C84" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F84" s="34"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="27"/>
-    </row>
-    <row r="85" spans="2:8" ht="17" thickBot="1">
-      <c r="B85" s="24"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="27"/>
-    </row>
-    <row r="86" spans="2:8" ht="17" thickBot="1">
-      <c r="B86" s="24"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F86" s="34"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="27"/>
-    </row>
-    <row r="87" spans="2:8" ht="17" thickBot="1">
-      <c r="B87" s="24"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="27"/>
-    </row>
-    <row r="88" spans="2:8" ht="17" thickBot="1">
-      <c r="B88" s="24"/>
-      <c r="C88" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="27"/>
-    </row>
-    <row r="89" spans="2:8" ht="17" thickBot="1">
-      <c r="B89" s="24"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="27"/>
-    </row>
-    <row r="90" spans="2:8" ht="17" thickBot="1">
-      <c r="B90" s="24"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="27"/>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="24"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="24"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="27"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="24"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="27"/>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="24"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="27"/>
-    </row>
-    <row r="95" spans="2:8" ht="17" thickBot="1">
-      <c r="B95" s="29"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="31"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="25"/>
+      <c r="J97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="22"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="25"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="22"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="25"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="22"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="25"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="22"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="25"/>
+    </row>
+    <row r="102" spans="2:10" ht="17" thickBot="1">
+      <c r="B102" s="27"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="50" max="16383" man="1"/>
+    <brk id="53" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/doc/java中级试做式样书20190206.xlsx
+++ b/doc/java中级试做式样书20190206.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/开发环境/git/JavaMiddleClassSampleSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4C313B98-1FD0-DD4B-9135-482C6B3B8354}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{817AE3E2-1574-6840-8B4B-CDD302B31E5B}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15960" activeTab="1" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15960" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
   </bookViews>
   <sheets>
     <sheet name="数学建模" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="116">
   <si>
     <t>契约ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,393 +72,423 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>案件基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    |----------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会社情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会社基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术者信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术者基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约者信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方契约者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方契约者ID</t>
+  </si>
+  <si>
+    <t>乙方契约者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤务信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤务时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班费单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备考说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约种别</t>
+  </si>
+  <si>
+    <t>契约种别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注，勤务表主要针对乙方的作业信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        也可以是乙方公司提出给甲方公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        可以是技术者提给公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结，所谓建模，就是设计一种数据模型，把一件事的所有情况都装进去，再拿出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            是IT业的顶级分工，毫无疑问是站在金字塔顶端的工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            不过随着AI的崛起，这个业种也受到了不小的冲击，有被数学家取代的趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后我们再说一说，系统架构，同样是站在绝顶巅峰的一项工作，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            基本上也可以说是用二进制思维的一群大神。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            他们注重计算速度，存储效率，维持着硬件与软件的平衡，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索画面------------------------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一括</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請負</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般雇佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>円</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万円</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘2019/02/01</t>
+  </si>
+  <si>
+    <t>‘2019/02/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算币种</t>
+  </si>
+  <si>
+    <t>结算币种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏扬株式会社</t>
+  </si>
+  <si>
+    <t>宏扬株式会社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜老师</t>
+  </si>
+  <si>
+    <t>颜老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加/更新/照会 画面------------------------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约新规/契约更新/契约照会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>›</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会社ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约技术者信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约会社信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约情报检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终了时间，指契约实际终止的时间，系统以此判断该契约是否活着，同删除flg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约ID，指系统自动对契约数据的采番ID，不受认为控制，是区别两契约的唯一标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约CD，指人为给契约的编号指定，实际就是契约的名字。也是唯一的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体命名规则受各公司制约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间，指契约有效的开始日，并不是登陆的日时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约ID，用来表示双方的唯一标示，只在契约数据中有效，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与技术者ID，会社ID个字分别建立关联数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终了日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（隐藏项）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照按钮会直接启动缩小版的【契约者检索画面】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是这样就复杂了，可以直接输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（真正项目的话，契约双方需要检索入力。这样更安全。防止输入错误。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处暂时不用实装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（真正提交的时候，需要契约ID来进行操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（但，它与用户不发生实际关系，所以就隐藏了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约实际终了日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注，精算。主要针对甲方的请求信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        这一块比较复杂，加班打车，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        差旅住宿都会算进去，以后再说吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该画面其实是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员契约情报</t>
+  </si>
+  <si>
     <t>案件契约情报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案件基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    |----------</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会社情报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会社基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术者信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术者基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约者信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲方契约者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方契约者ID</t>
-  </si>
-  <si>
-    <t>乙方契约者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勤务信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业年月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勤务时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勤务表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精算信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精算年月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低工数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班费单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备考说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约种别</t>
-  </si>
-  <si>
-    <t>契约种别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注，勤务表主要针对乙方的作业信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注，精算主要针对甲方的请求信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        也可以是乙方公司提出给甲方公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        这一块比较复杂，连加班打车，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        包宿住宿都会算进去，再说啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        可以是技术者提给公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结，所谓建模，就是设计一种数据模型，把一件事的所有情况都装进去，再拿出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            是IT业的顶级分工，毫无疑问是站在金字塔顶端的工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            不过随着AI的崛起，这个业种也受到了不小的冲击，有被数学家取代的趋势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以后我们再说一说，系统架构，同样是站在绝顶巅峰的一项工作，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            基本上也可以说是用二进制思维的一群大神。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            他们注重计算速度，存储效率，维持着硬件与软件的平衡，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索画面------------------------------</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含交通费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一括</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請負</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般雇佣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>円</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万円</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘0000000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘2019/02/01</t>
-  </si>
-  <si>
-    <t>‘2019/02/01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算币种</t>
-  </si>
-  <si>
-    <t>结算币种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏扬株式会社</t>
-  </si>
-  <si>
-    <t>宏扬株式会社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘1000000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜老师</t>
-  </si>
-  <si>
-    <t>颜老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲方名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>币种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追加/更新/照会 画面------------------------------</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约新规/契约更新/契约照会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>›</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会社ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约技术者信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约会社信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约情报检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终了时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终了时间，指契约实际终止的时间，系统以此判断该契约是否活着，同删除flg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约ID，指系统自动对契约数据的采番ID，不受认为控制，是区别两契约的唯一标示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约CD，指人为给契约的编号指定，实际就是契约的名字。也是唯一的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体命名规则受各公司制约。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间，指契约有效的开始日，并不是登陆的日时。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约ID，用来表示双方的唯一标示，只在契约数据中有效，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与技术者ID，会社ID个字分别建立关联数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终了日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（隐藏项）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照按钮会直接启动缩小版的【契约者检索画面】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是这样就复杂了，可以直接输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（真正项目的话，契约双方需要检索入力。这样更安全。防止输入错误。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此处暂时不用实装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（真正提交的时候，需要契约ID来进行操作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（但，它与用户不发生实际关系，所以就隐藏了）</t>
+  </si>
+  <si>
+    <t>两种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据契约种别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来区分的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会社契约情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约案件信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -521,6 +551,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -776,9 +814,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +940,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -927,15 +965,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104493</xdr:colOff>
+      <xdr:colOff>104494</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>110066</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -950,8 +988,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1760316" y="1109241"/>
-          <a:ext cx="22507" cy="1655501"/>
+          <a:off x="1763961" y="1120494"/>
+          <a:ext cx="5572" cy="1597306"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1085,16 +1123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15111</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>110068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>821267</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1109,8 +1147,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4787900" y="2870200"/>
-          <a:ext cx="1079500" cy="850900"/>
+          <a:off x="5823244" y="4377268"/>
+          <a:ext cx="2465623" cy="753532"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1191,16 +1229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>88418</xdr:rowOff>
+      <xdr:rowOff>71484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>586772</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442838</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1215,8 +1253,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6379580" y="2298861"/>
-          <a:ext cx="2572" cy="1419829"/>
+          <a:off x="8737599" y="3729084"/>
+          <a:ext cx="2572" cy="1435583"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1345,8 +1383,8 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>46567</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -1367,8 +1405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11315700" y="3856567"/>
-          <a:ext cx="1638300" cy="1693333"/>
+          <a:off x="11394319" y="5337024"/>
+          <a:ext cx="1650395" cy="1195614"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1548,15 +1586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>447876</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>244676</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161242</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1571,8 +1609,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="431800" y="3327400"/>
-          <a:ext cx="13004800" cy="12700"/>
+          <a:off x="447876" y="5172276"/>
+          <a:ext cx="13043382" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1779,6 +1817,59 @@
         <a:xfrm flipH="1">
           <a:off x="5200570" y="651076"/>
           <a:ext cx="3022278" cy="1036899"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9799E668-C404-F044-95F6-34BEF435DA1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6163733" y="2081087"/>
+          <a:ext cx="19828" cy="662113"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2005,13 +2096,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2101,13 +2192,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2253,7 +2344,11 @@
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>隐藏项</a:t>
           </a:r>
         </a:p>
@@ -2265,13 +2360,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>44655</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600860</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>109247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2361,13 +2456,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>44655</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>136559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600860</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>27312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2457,13 +2552,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>873979</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>177527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>559893</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>109248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2513,7 +2608,11 @@
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>隐藏项</a:t>
           </a:r>
         </a:p>
@@ -2525,13 +2624,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>805699</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>150215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>491613</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>81936</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2581,7 +2680,11 @@
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>隐藏项</a:t>
           </a:r>
         </a:p>
@@ -2891,64 +2994,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB3C938-E96B-0748-B609-B11225872B2D}">
   <dimension ref="B3:M60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A44" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="3" spans="2:13">
       <c r="C3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="C4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>17</v>
+      <c r="C4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="C5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>87</v>
+      <c r="C5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
       </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2962,75 +3068,78 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="K15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="6"/>
+      <c r="L16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="6"/>
+      <c r="K17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:13">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -3042,137 +3151,156 @@
     </row>
     <row r="19" spans="2:13">
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:13">
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:13">
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" t="s">
-        <v>9</v>
+      <c r="K27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="3"/>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="3"/>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
         <v>0</v>
@@ -3180,140 +3308,140 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="3"/>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21">
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="H41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10" ht="21">
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="2:10" ht="21">
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="21">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="2:10" ht="21">
+      <c r="B47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="2:10" ht="21">
+      <c r="B48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="2:10" ht="21">
-      <c r="B47" s="8" t="s">
+      <c r="C48" s="7"/>
+    </row>
+    <row r="53" spans="2:3" ht="21">
+      <c r="B53" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="2:3" ht="21">
+      <c r="B54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="2:3" ht="21">
+      <c r="B55" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" ht="21">
-      <c r="B48" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="53" spans="2:3" ht="21">
-      <c r="B53" s="8" t="s">
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="2:3" ht="21">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="58" spans="2:3" ht="21">
+      <c r="B58" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="21">
+      <c r="B59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="2:3" ht="21">
-      <c r="B54" s="8" t="s">
+    </row>
+    <row r="60" spans="2:3" ht="21">
+      <c r="B60" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="2:3" ht="21">
-      <c r="B55" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="2:3" ht="21">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="58" spans="2:3" ht="21">
-      <c r="B58" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="21">
-      <c r="B59" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="21">
-      <c r="B60" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3326,10 +3454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2F298-F814-AA41-A4D0-B91574A5D1F7}">
-  <dimension ref="B2:M102"/>
+  <dimension ref="B2:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3340,1356 +3468,1395 @@
   <sheetData>
     <row r="2" spans="2:13" ht="17" thickBot="1">
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="2:13" ht="31">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="21"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="2:13" ht="17" thickBot="1">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1">
+      <c r="B8" s="21"/>
+      <c r="C8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="2:13" ht="17" thickBot="1">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1">
+      <c r="B10" s="21"/>
+      <c r="C10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="2:13" ht="17" thickBot="1">
+      <c r="B11" s="21"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="2:13" ht="17" thickBot="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="2:13" ht="17" thickBot="1">
+      <c r="B13" s="21"/>
+      <c r="D13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="2:13" ht="17" thickBot="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="2:13" ht="17" thickBot="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="21"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="17" thickBot="1">
+      <c r="B17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="17" thickBot="1">
+      <c r="B18" s="21"/>
+      <c r="C18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="17" thickBot="1">
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="17" thickBot="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="17" thickBot="1">
+      <c r="B21" s="21"/>
+      <c r="C21" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="21"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="2:13" ht="17" thickBot="1">
+      <c r="B23" s="21"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="2:13" ht="17" thickBot="1">
+      <c r="B24" s="21"/>
+      <c r="C24" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="2:13" ht="31">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="22"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="2:13" ht="17" thickBot="1">
-      <c r="B8" s="22"/>
-      <c r="C8" s="24" t="s">
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="2:13" ht="17" thickBot="1">
+      <c r="B25" s="21"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="2:13" ht="17" thickBot="1">
+      <c r="B26" s="21"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="2:13" ht="17" thickBot="1">
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" spans="2:13" ht="17" thickBot="1">
+      <c r="B28" s="21"/>
+      <c r="C28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="21"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="2:13" ht="17" thickBot="1">
+      <c r="B30" s="21"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="2:13" ht="17" thickBot="1">
+      <c r="B31" s="21"/>
+      <c r="C31" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="2:13" ht="17" thickBot="1">
+      <c r="B32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="2:13" ht="17" thickBot="1">
+      <c r="B33" s="21"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="2:13" ht="17" thickBot="1">
+      <c r="B34" s="21"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="2:13" ht="17" thickBot="1">
+      <c r="B35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+    </row>
+    <row r="36" spans="2:13" ht="17" thickBot="1">
+      <c r="B36" s="21"/>
+      <c r="C36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+    </row>
+    <row r="37" spans="2:13" ht="17" thickBot="1">
+      <c r="B37" s="21"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="2:13" ht="17" thickBot="1">
+      <c r="B38" s="21"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F38" s="31"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="2:13" ht="17" thickBot="1">
+      <c r="B39" s="21"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="2:13" ht="17" thickBot="1">
+      <c r="B40" s="21"/>
+      <c r="C40" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="2:13" ht="17" thickBot="1">
+      <c r="B41" s="21"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
+    </row>
+    <row r="42" spans="2:13" ht="17" thickBot="1">
+      <c r="B42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="21"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="21"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="21"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="21"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="24"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="21"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="24"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="21"/>
+      <c r="C48" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" s="24"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="21"/>
+      <c r="C49" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1">
-      <c r="B10" s="22"/>
-      <c r="C10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="12">
-        <v>45</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="2:13" ht="17" thickBot="1">
-      <c r="B11" s="22"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1">
-      <c r="B12" s="22"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1">
-      <c r="B13" s="22"/>
-      <c r="D13" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="12" t="s">
+      <c r="I49" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1">
-      <c r="B14" s="22"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="2:13" ht="17" thickBot="1">
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="22"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="2:13" ht="17" thickBot="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="2:13" ht="17" thickBot="1">
-      <c r="B18" s="22"/>
-      <c r="C18" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="2:13" ht="17" thickBot="1">
-      <c r="B19" s="22"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="2:13" ht="17" thickBot="1">
-      <c r="B20" s="22"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" spans="2:13" ht="17" thickBot="1">
-      <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="22"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="2:13" ht="17" thickBot="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="2:13" ht="17" thickBot="1">
-      <c r="B24" s="22"/>
-      <c r="C24" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="2:13" ht="17" thickBot="1">
-      <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="2:13" ht="17" thickBot="1">
-      <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="2:13" ht="17" thickBot="1">
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="2:13" ht="17" thickBot="1">
-      <c r="B28" s="22"/>
-      <c r="C28" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="22"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
-    </row>
-    <row r="30" spans="2:13" ht="17" thickBot="1">
-      <c r="B30" s="22"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
-    </row>
-    <row r="31" spans="2:13" ht="17" thickBot="1">
-      <c r="B31" s="22"/>
-      <c r="C31" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
-    </row>
-    <row r="32" spans="2:13" ht="17" thickBot="1">
-      <c r="B32" s="22"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25"/>
-    </row>
-    <row r="33" spans="2:13" ht="17" thickBot="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
-    </row>
-    <row r="34" spans="2:13" ht="17" thickBot="1">
-      <c r="B34" s="22"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25"/>
-    </row>
-    <row r="35" spans="2:13" ht="17" thickBot="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="25"/>
-    </row>
-    <row r="36" spans="2:13" ht="17" thickBot="1">
-      <c r="B36" s="22"/>
-      <c r="C36" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="L49" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
-    </row>
-    <row r="37" spans="2:13" ht="17" thickBot="1">
-      <c r="B37" s="22"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25"/>
-    </row>
-    <row r="38" spans="2:13" ht="17" thickBot="1">
-      <c r="B38" s="22"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
-    </row>
-    <row r="39" spans="2:13" ht="17" thickBot="1">
-      <c r="B39" s="22"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="2:13" ht="17" thickBot="1">
-      <c r="B40" s="22"/>
-      <c r="C40" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="25"/>
-    </row>
-    <row r="41" spans="2:13" ht="17" thickBot="1">
-      <c r="B41" s="22"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="25"/>
-    </row>
-    <row r="42" spans="2:13" ht="17" thickBot="1">
-      <c r="B42" s="22"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="25"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="22"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="25"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="22"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="22"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="25"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="22"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="25"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="22"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="25"/>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="22"/>
-      <c r="C48" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K48" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="L48" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="M48" s="25"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="22"/>
-      <c r="C49" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="I49" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K49" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="L49" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M49" s="25"/>
+      <c r="M49" s="24"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="22"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="25"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="24"/>
     </row>
     <row r="51" spans="2:13" ht="17" thickBot="1">
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="29"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="28"/>
     </row>
     <row r="55" spans="2:13" ht="17" thickBot="1">
       <c r="B55" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="21"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="2:13" ht="31">
-      <c r="B57" s="22"/>
-      <c r="C57" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="22"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="25"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
     </row>
     <row r="59" spans="2:13" ht="17" thickBot="1">
-      <c r="B59" s="22"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="24"/>
       <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="17" thickBot="1">
+      <c r="B60" s="21"/>
+      <c r="C60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="43"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="24"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="17" thickBot="1">
+      <c r="B61" s="21"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62" spans="2:13" ht="17" thickBot="1">
+      <c r="B62" s="21"/>
+      <c r="C62" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="17" thickBot="1">
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
+      <c r="K63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="17" thickBot="1">
+      <c r="B64" s="21"/>
+      <c r="C64" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+    </row>
+    <row r="65" spans="2:14" ht="17" thickBot="1">
+      <c r="B65" s="21"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
+      <c r="J65" t="s">
+        <v>107</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="17" thickBot="1">
+      <c r="B66" s="21"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="J66" t="s">
+        <v>111</v>
+      </c>
+      <c r="L66" t="s">
+        <v>108</v>
+      </c>
+      <c r="N66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="17" thickBot="1">
+      <c r="B67" s="21"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+      <c r="J67" t="s">
+        <v>112</v>
+      </c>
+      <c r="L67" t="s">
+        <v>109</v>
+      </c>
+      <c r="N67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="17" thickBot="1">
+      <c r="B68" s="21"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
+      <c r="J68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" ht="17" thickBot="1">
+      <c r="B69" s="21"/>
+      <c r="C69" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="11">
+        <v>45</v>
+      </c>
+      <c r="E69" s="23"/>
+      <c r="F69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="24"/>
+    </row>
+    <row r="70" spans="2:14" ht="17" thickBot="1">
+      <c r="B70" s="21"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="J70" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="17" thickBot="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="43" t="s">
+    <row r="71" spans="2:14" ht="17" thickBot="1">
+      <c r="B71" s="21"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24"/>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" ht="17" thickBot="1">
+      <c r="B72" s="21"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="25"/>
-      <c r="J60" t="s">
+      <c r="E72" s="23"/>
+      <c r="F72" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="23"/>
+      <c r="H72" s="24"/>
+    </row>
+    <row r="73" spans="2:14" ht="17" thickBot="1">
+      <c r="B73" s="21"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24"/>
+    </row>
+    <row r="74" spans="2:14" ht="17" thickBot="1">
+      <c r="B74" s="21"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="21"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
+    </row>
+    <row r="76" spans="2:14" ht="17" thickBot="1">
+      <c r="B76" s="21"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="24"/>
+    </row>
+    <row r="77" spans="2:14" ht="17" thickBot="1">
+      <c r="B77" s="21"/>
+      <c r="C77" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="24"/>
+    </row>
+    <row r="78" spans="2:14" ht="17" thickBot="1">
+      <c r="B78" s="21"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="21"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="24"/>
+    </row>
+    <row r="80" spans="2:14" ht="17" thickBot="1">
+      <c r="B80" s="21"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="24"/>
+    </row>
+    <row r="81" spans="2:11" ht="17" thickBot="1">
+      <c r="B81" s="21"/>
+      <c r="C81" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
+      <c r="J81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="21"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="21"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+    </row>
+    <row r="84" spans="2:11" ht="17" thickBot="1">
+      <c r="B84" s="21"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="24"/>
+    </row>
+    <row r="85" spans="2:11" ht="17" thickBot="1">
+      <c r="B85" s="21"/>
+      <c r="C85" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="11">
+        <v>1</v>
+      </c>
+      <c r="E85" s="23"/>
+      <c r="F85" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" s="23"/>
+      <c r="H85" s="24"/>
+    </row>
+    <row r="86" spans="2:11" ht="17" thickBot="1">
+      <c r="B86" s="21"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" s="23"/>
+      <c r="H86" s="24"/>
+    </row>
+    <row r="87" spans="2:11" ht="17" thickBot="1">
+      <c r="B87" s="21"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="23"/>
+      <c r="H87" s="24"/>
+    </row>
+    <row r="88" spans="2:11" ht="17" thickBot="1">
+      <c r="B88" s="21"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="2:11" ht="17" thickBot="1">
+      <c r="B89" s="21"/>
+      <c r="C89" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
+      <c r="J89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="21"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="24"/>
+    </row>
+    <row r="91" spans="2:11" ht="17" thickBot="1">
+      <c r="B91" s="21"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="24"/>
+    </row>
+    <row r="92" spans="2:11" ht="17" thickBot="1">
+      <c r="B92" s="21"/>
+      <c r="C92" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F92" s="29"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="24"/>
+      <c r="J92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="17" thickBot="1">
+      <c r="B93" s="21"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="24"/>
+      <c r="J93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="17" thickBot="1">
+      <c r="B94" s="21"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F94" s="31"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="24"/>
+      <c r="J94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="17" thickBot="1">
+      <c r="B95" s="21"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="24"/>
+      <c r="K95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="17" thickBot="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="25"/>
-    </row>
-    <row r="62" spans="2:13" ht="17" thickBot="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
-      <c r="J62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" ht="17" thickBot="1">
-      <c r="B63" s="22"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="25"/>
-      <c r="K63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" ht="17" thickBot="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="12">
-        <v>45</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G64" s="24"/>
-      <c r="H64" s="25"/>
-    </row>
-    <row r="65" spans="2:10" ht="17" thickBot="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" s="24"/>
-      <c r="H65" s="25"/>
-      <c r="J65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="17" thickBot="1">
-      <c r="B66" s="22"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="25"/>
-      <c r="J66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="17" thickBot="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24" t="s">
+    <row r="96" spans="2:11" ht="17" thickBot="1">
+      <c r="B96" s="21"/>
+      <c r="C96" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" s="24"/>
-      <c r="H67" s="25"/>
-    </row>
-    <row r="68" spans="2:10" ht="17" thickBot="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="25"/>
-    </row>
-    <row r="69" spans="2:10" ht="17" thickBot="1">
-      <c r="B69" s="22"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="17" t="s">
+      <c r="E96" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96" s="29"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="24"/>
+    </row>
+    <row r="97" spans="2:10" ht="17" thickBot="1">
+      <c r="B97" s="21"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="24"/>
+      <c r="J97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="17" thickBot="1">
+      <c r="B98" s="21"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="25"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="22"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="25"/>
-    </row>
-    <row r="71" spans="2:10" ht="17" thickBot="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="25"/>
-    </row>
-    <row r="72" spans="2:10" ht="17" thickBot="1">
-      <c r="B72" s="22"/>
-      <c r="C72" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="25"/>
-    </row>
-    <row r="73" spans="2:10" ht="17" thickBot="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="25"/>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="22"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="25"/>
-    </row>
-    <row r="75" spans="2:10" ht="17" thickBot="1">
-      <c r="B75" s="22"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="25"/>
-    </row>
-    <row r="76" spans="2:10" ht="17" thickBot="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="25"/>
-      <c r="J76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="22"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25"/>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="22"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="25"/>
-    </row>
-    <row r="79" spans="2:10" ht="17" thickBot="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="25"/>
-    </row>
-    <row r="80" spans="2:10" ht="17" thickBot="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="12">
-        <v>1</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80" s="24"/>
-      <c r="H80" s="25"/>
-    </row>
-    <row r="81" spans="2:11" ht="17" thickBot="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G81" s="24"/>
-      <c r="H81" s="25"/>
-    </row>
-    <row r="82" spans="2:11" ht="17" thickBot="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
-    </row>
-    <row r="83" spans="2:11" ht="17" thickBot="1">
-      <c r="B83" s="22"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="25"/>
-    </row>
-    <row r="84" spans="2:11" ht="17" thickBot="1">
-      <c r="B84" s="22"/>
-      <c r="C84" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="25"/>
-      <c r="J84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" ht="17" thickBot="1">
-      <c r="B85" s="22"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="25"/>
-    </row>
-    <row r="86" spans="2:11" ht="17" thickBot="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="25"/>
-    </row>
-    <row r="87" spans="2:11" ht="17" thickBot="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="25"/>
-    </row>
-    <row r="88" spans="2:11" ht="17" thickBot="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="25"/>
-    </row>
-    <row r="89" spans="2:11" ht="17" thickBot="1">
-      <c r="B89" s="22"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="25"/>
-    </row>
-    <row r="90" spans="2:11" ht="17" thickBot="1">
-      <c r="B90" s="22"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="25"/>
-    </row>
-    <row r="91" spans="2:11" ht="17" thickBot="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" s="30"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="25"/>
-      <c r="J91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" ht="17" thickBot="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="25"/>
-      <c r="J92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" ht="17" thickBot="1">
-      <c r="B93" s="22"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F93" s="32"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="25"/>
-      <c r="J93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" ht="17" thickBot="1">
-      <c r="B94" s="22"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="25"/>
-      <c r="K94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" ht="17" thickBot="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F95" s="30"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="25"/>
-    </row>
-    <row r="96" spans="2:11" ht="17" thickBot="1">
-      <c r="B96" s="22"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="25"/>
-      <c r="J96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" ht="17" thickBot="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F97" s="32"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="25"/>
-      <c r="J97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="22"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="25"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="24"/>
+      <c r="J98" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99" s="22"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="25"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="24"/>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="22"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="25"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" spans="2:10">
-      <c r="B101" s="22"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="25"/>
-    </row>
-    <row r="102" spans="2:10" ht="17" thickBot="1">
-      <c r="B102" s="27"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="29"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="24"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="21"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="24"/>
+    </row>
+    <row r="103" spans="2:10" ht="17" thickBot="1">
+      <c r="B103" s="26"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/java中级试做式样书20190206.xlsx
+++ b/doc/java中级试做式样书20190206.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/开发环境/git/JavaMiddleClassSampleSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{817AE3E2-1574-6840-8B4B-CDD302B31E5B}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B8A18F38-6065-D448-965F-548294C10A37}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15960" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
   </bookViews>
   <sheets>
     <sheet name="数学建模" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="125">
   <si>
     <t>契约ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甲方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,14 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>契约技术者信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约会社信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>契约情报检索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>终了日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（隐藏项）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,13 +474,64 @@
   <si>
     <t>契约案件信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会福利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约者会社区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色代表已经完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色代表正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色代表今后预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个颜色块都代表一个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个对象都有唯一的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个对象都有一些属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个对象在数据库中都对应一个表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于是检索画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有日期与数值都要用区间值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约实际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终了日</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -551,14 +586,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -801,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,7 +967,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,15 +995,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104494</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104494</xdr:rowOff>
+      <xdr:colOff>110066</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>110066</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>651934</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -987,9 +1017,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1763961" y="1120494"/>
-          <a:ext cx="5572" cy="1597306"/>
+        <a:xfrm flipV="1">
+          <a:off x="1769533" y="1286933"/>
+          <a:ext cx="2201334" cy="1430868"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1017,16 +1047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>32152</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104494</xdr:colOff>
+      <xdr:colOff>101602</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
+      <xdr:rowOff>165103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1040,9 +1070,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8380714" y="1036899"/>
-          <a:ext cx="2894" cy="1740544"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6714067" y="1329267"/>
+          <a:ext cx="1684868" cy="1477436"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1738,122 +1768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>747531</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>699303</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>72342</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直线箭头连接符 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDE2497-D441-934B-966A-820CB6780485}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2403354" y="1133354"/>
-          <a:ext cx="1607595" cy="546583"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>233102</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>48228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>771645</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80380</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直线箭头连接符 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A74233-2516-614A-BF03-03EC7CAE570A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5200570" y="651076"/>
-          <a:ext cx="3022278" cy="1036899"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49087</xdr:rowOff>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>375428</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1867,9 +1791,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6163733" y="2081087"/>
-          <a:ext cx="19828" cy="662113"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6146800" y="2260600"/>
+          <a:ext cx="16933" cy="482601"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2287,15 +2211,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>587203</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>177527</xdr:rowOff>
+      <xdr:colOff>614516</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>996881</xdr:colOff>
+      <xdr:colOff>1024194</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>81935</xdr:rowOff>
+      <xdr:rowOff>109247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2310,7 +2234,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1406558" y="12727312"/>
+          <a:off x="1433871" y="12740968"/>
           <a:ext cx="5639893" cy="546236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2648,6 +2572,342 @@
         <a:xfrm>
           <a:off x="2444409" y="20060538"/>
           <a:ext cx="4096774" cy="368710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>隐藏项</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150215</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>191182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>706420</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355BEDE6-0D72-E546-9018-6B7006BA3C92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5380430" y="7701935"/>
+          <a:ext cx="556205" cy="327741"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150215</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>150215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>706420</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C542CB8-A012-0E4D-B628-1D1FD409D0CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5380430" y="8534946"/>
+          <a:ext cx="556205" cy="327741"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>218494</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122903</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>136559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F60D07-AEA1-B94D-92C6-6E4C6DCE09E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1037849" y="8043333"/>
+          <a:ext cx="4315269" cy="464301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>隐藏项</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>218494</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122903</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E47225-C9A4-F242-9539-F0A97BE6BD46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1037849" y="8903656"/>
+          <a:ext cx="4315269" cy="464301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2992,69 +3252,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB3C938-E96B-0748-B609-B11225872B2D}">
-  <dimension ref="B3:M60"/>
+  <dimension ref="A2:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="2:13">
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="C4" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="C5" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="39" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3064,73 +3352,73 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="1:13">
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>19</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="M17" s="5"/>
     </row>
@@ -3139,10 +3427,10 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
@@ -3151,85 +3439,101 @@
     </row>
     <row r="19" spans="2:13">
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:13">
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:13">
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:13">
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:13">
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:13">
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:13">
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2"/>
       <c r="K27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="3"/>
       <c r="K28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
@@ -3237,70 +3541,48 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="D29" s="3"/>
       <c r="K29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L29" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
       <c r="D30" s="3"/>
       <c r="K30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="K31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="K32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
         <v>0</v>
@@ -3308,120 +3590,120 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="3"/>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21">
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="3"/>
       <c r="H41" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10" ht="21">
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="2:10" ht="21">
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="21">
       <c r="B46" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="2:10" ht="21">
       <c r="B47" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="7"/>
     </row>
     <row r="48" spans="2:10" ht="21">
       <c r="B48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="7"/>
     </row>
     <row r="53" spans="2:3" ht="21">
       <c r="B53" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:3" ht="21">
       <c r="B54" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="2:3" ht="21">
       <c r="B55" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="7"/>
     </row>
@@ -3431,17 +3713,17 @@
     </row>
     <row r="58" spans="2:3" ht="21">
       <c r="B58" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="21">
       <c r="B59" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="21">
       <c r="B60" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3456,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2F298-F814-AA41-A4D0-B91574A5D1F7}">
   <dimension ref="B2:N103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3466,12 +3748,12 @@
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17" thickBot="1">
+    <row r="2" spans="2:14" ht="17" thickBot="1">
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -3485,10 +3767,10 @@
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="2:13" ht="31">
+    <row r="4" spans="2:14" ht="31">
       <c r="B4" s="21"/>
       <c r="C4" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -3501,7 +3783,7 @@
       <c r="L4" s="23"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:14">
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -3515,7 +3797,7 @@
       <c r="L5" s="23"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:14">
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -3529,7 +3811,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1">
+    <row r="7" spans="2:14" ht="17" thickBot="1">
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -3543,13 +3825,13 @@
       <c r="L7" s="23"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="2:13" ht="17" thickBot="1">
+    <row r="8" spans="2:14" ht="17" thickBot="1">
       <c r="B8" s="21"/>
       <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
@@ -3560,8 +3842,11 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1">
+      <c r="N8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="17" thickBot="1">
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -3574,49 +3859,57 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1">
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="17" thickBot="1">
       <c r="B10" s="21"/>
       <c r="C10" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="11">
         <v>45</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="11" t="s">
-        <v>58</v>
+      <c r="E10" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="11">
+        <v>85</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="H10" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="2:13" ht="17" thickBot="1">
+    <row r="11" spans="2:14" ht="17" thickBot="1">
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="H11" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1">
+    <row r="12" spans="2:14" ht="17" thickBot="1">
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -3625,56 +3918,44 @@
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1">
+    <row r="13" spans="2:14" ht="17" thickBot="1">
       <c r="B13" s="21"/>
-      <c r="D13" s="23" t="s">
-        <v>64</v>
-      </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="17" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1">
+    <row r="14" spans="2:14" ht="17" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="2:13" ht="17" thickBot="1">
+    <row r="15" spans="2:14">
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:14">
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -3688,7 +3969,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="17" thickBot="1">
+    <row r="17" spans="2:14" ht="17" thickBot="1">
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -3702,13 +3983,13 @@
       <c r="L17" s="23"/>
       <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="17" thickBot="1">
+    <row r="18" spans="2:14" ht="17" thickBot="1">
       <c r="B18" s="21"/>
       <c r="C18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -3720,11 +4001,11 @@
       <c r="L18" s="23"/>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="17" thickBot="1">
+    <row r="19" spans="2:14" ht="17" thickBot="1">
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
       <c r="D19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -3736,7 +4017,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="17" thickBot="1">
+    <row r="20" spans="2:14" ht="17" thickBot="1">
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -3750,17 +4031,17 @@
       <c r="L20" s="23"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="17" thickBot="1">
+    <row r="21" spans="2:14" ht="17" thickBot="1">
       <c r="B21" s="21"/>
       <c r="C21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="10"/>
@@ -3769,16 +4050,22 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="2:13">
+      <c r="N21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="21"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="24"/>
-    </row>
-    <row r="23" spans="2:13" ht="17" thickBot="1">
+      <c r="N22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="17" thickBot="1">
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -3792,59 +4079,64 @@
       <c r="L23" s="23"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="17" thickBot="1">
+    <row r="24" spans="2:14" ht="17" thickBot="1">
       <c r="B24" s="21"/>
       <c r="C24" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="13" t="s">
-        <v>49</v>
+      <c r="E24" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="11">
+        <v>3</v>
       </c>
       <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="24"/>
-    </row>
-    <row r="25" spans="2:13" ht="17" thickBot="1">
+      <c r="N24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="17" thickBot="1">
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="H25" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="24"/>
-    </row>
-    <row r="26" spans="2:13" ht="17" thickBot="1">
+      <c r="N25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="17" thickBot="1">
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="24"/>
     </row>
-    <row r="27" spans="2:13" ht="17" thickBot="1">
+    <row r="27" spans="2:14" ht="17" thickBot="1">
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -3858,17 +4150,17 @@
       <c r="L27" s="23"/>
       <c r="M27" s="24"/>
     </row>
-    <row r="28" spans="2:13" ht="17" thickBot="1">
+    <row r="28" spans="2:14" ht="17" thickBot="1">
       <c r="B28" s="21"/>
       <c r="C28" s="23" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="10"/>
@@ -3877,10 +4169,15 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="24"/>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="N28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="21"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -3891,8 +4188,11 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="2:13" ht="17" thickBot="1">
+      <c r="N29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="17" thickBot="1">
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -3906,13 +4206,13 @@
       <c r="L30" s="23"/>
       <c r="M30" s="24"/>
     </row>
-    <row r="31" spans="2:13" ht="17" thickBot="1">
+    <row r="31" spans="2:14" ht="17" thickBot="1">
       <c r="B31" s="21"/>
       <c r="C31" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -3924,11 +4224,11 @@
       <c r="L31" s="23"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="2:13" ht="17" thickBot="1">
+    <row r="32" spans="2:14" ht="17" thickBot="1">
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
       <c r="D32" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -3944,7 +4244,7 @@
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
       <c r="D33" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
@@ -3960,7 +4260,7 @@
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
       <c r="D34" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
@@ -3969,7 +4269,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L34" s="23"/>
       <c r="M34" s="24"/>
@@ -3991,13 +4291,13 @@
     <row r="36" spans="2:13" ht="17" thickBot="1">
       <c r="B36" s="21"/>
       <c r="C36" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="23"/>
@@ -4026,10 +4326,10 @@
       <c r="B38" s="21"/>
       <c r="C38" s="23"/>
       <c r="D38" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="23"/>
@@ -4057,13 +4357,13 @@
     <row r="40" spans="2:13" ht="17" thickBot="1">
       <c r="B40" s="21"/>
       <c r="C40" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="23"/>
@@ -4092,10 +4392,10 @@
       <c r="B42" s="21"/>
       <c r="C42" s="23"/>
       <c r="D42" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="23"/>
@@ -4182,65 +4482,65 @@
         <v>0</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="I48" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K48" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L48" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="L48" s="32" t="s">
-        <v>75</v>
       </c>
       <c r="M48" s="24"/>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="21"/>
       <c r="C49" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>61</v>
-      </c>
       <c r="I49" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L49" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M49" s="24"/>
     </row>
@@ -4274,7 +4574,7 @@
     </row>
     <row r="55" spans="2:13" ht="17" thickBot="1">
       <c r="B55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="2:13">
@@ -4289,7 +4589,7 @@
     <row r="57" spans="2:13" ht="31">
       <c r="B57" s="21"/>
       <c r="C57" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -4315,7 +4615,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="24"/>
       <c r="J59" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="17" thickBot="1">
@@ -4324,14 +4624,14 @@
         <v>0</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" s="43"/>
       <c r="F60" s="44"/>
       <c r="G60" s="15"/>
       <c r="H60" s="24"/>
       <c r="J60" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="17" thickBot="1">
@@ -4346,17 +4646,17 @@
     <row r="62" spans="2:13" ht="17" thickBot="1">
       <c r="B62" s="21"/>
       <c r="C62" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="10"/>
       <c r="G62" s="23"/>
       <c r="H62" s="24"/>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:13" ht="17" thickBot="1">
@@ -4368,16 +4668,16 @@
       <c r="G63" s="23"/>
       <c r="H63" s="24"/>
       <c r="K63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="17" thickBot="1">
       <c r="B64" s="21"/>
       <c r="C64" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
@@ -4388,14 +4688,14 @@
       <c r="B65" s="21"/>
       <c r="C65" s="23"/>
       <c r="D65" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="24"/>
       <c r="J65" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s">
         <v>1</v>
@@ -4408,40 +4708,40 @@
       <c r="B66" s="21"/>
       <c r="C66" s="23"/>
       <c r="D66" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="24"/>
       <c r="J66" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="2:14" ht="17" thickBot="1">
       <c r="B67" s="21"/>
       <c r="C67" s="23"/>
       <c r="D67" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="24"/>
       <c r="J67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L67" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N67" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="2:14" ht="17" thickBot="1">
@@ -4453,20 +4753,20 @@
       <c r="G68" s="23"/>
       <c r="H68" s="24"/>
       <c r="J68" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="2:14" ht="17" thickBot="1">
       <c r="B69" s="21"/>
       <c r="C69" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" s="11">
         <v>45</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="24"/>
@@ -4477,12 +4777,12 @@
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G70" s="23"/>
       <c r="H70" s="24"/>
       <c r="J70" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="2:14" ht="17" thickBot="1">
@@ -4494,18 +4794,18 @@
       <c r="G71" s="23"/>
       <c r="H71" s="24"/>
       <c r="J71" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="2:14" ht="17" thickBot="1">
       <c r="B72" s="21"/>
       <c r="C72" s="23"/>
       <c r="D72" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="24"/>
@@ -4516,7 +4816,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="24"/>
@@ -4527,7 +4827,7 @@
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="24"/>
@@ -4553,10 +4853,10 @@
     <row r="77" spans="2:14" ht="17" thickBot="1">
       <c r="B77" s="21"/>
       <c r="C77" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
@@ -4567,7 +4867,7 @@
       <c r="B78" s="21"/>
       <c r="C78" s="23"/>
       <c r="D78" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
@@ -4595,17 +4895,17 @@
     <row r="81" spans="2:11" ht="17" thickBot="1">
       <c r="B81" s="21"/>
       <c r="C81" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="24"/>
       <c r="J81" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="2:11">
@@ -4635,14 +4935,14 @@
     <row r="85" spans="2:11" ht="17" thickBot="1">
       <c r="B85" s="21"/>
       <c r="C85" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G85" s="23"/>
       <c r="H85" s="24"/>
@@ -4653,7 +4953,7 @@
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G86" s="23"/>
       <c r="H86" s="24"/>
@@ -4664,7 +4964,7 @@
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
       <c r="F87" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="24"/>
@@ -4681,22 +4981,24 @@
     <row r="89" spans="2:11" ht="17" thickBot="1">
       <c r="B89" s="21"/>
       <c r="C89" s="23" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
       <c r="H89" s="24"/>
       <c r="J89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="21"/>
-      <c r="C90" s="23"/>
+      <c r="C90" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
@@ -4715,19 +5017,19 @@
     <row r="92" spans="2:11" ht="17" thickBot="1">
       <c r="B92" s="21"/>
       <c r="C92" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F92" s="29"/>
       <c r="G92" s="23"/>
       <c r="H92" s="24"/>
       <c r="J92" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="2:11" ht="17" thickBot="1">
@@ -4739,23 +5041,23 @@
       <c r="G93" s="23"/>
       <c r="H93" s="24"/>
       <c r="J93" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="2:11" ht="17" thickBot="1">
       <c r="B94" s="21"/>
       <c r="C94" s="23"/>
       <c r="D94" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="23"/>
       <c r="H94" s="24"/>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="2:11" ht="17" thickBot="1">
@@ -4767,19 +5069,19 @@
       <c r="G95" s="23"/>
       <c r="H95" s="24"/>
       <c r="K95" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="2:11" ht="17" thickBot="1">
       <c r="B96" s="21"/>
       <c r="C96" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="23"/>
@@ -4794,23 +5096,23 @@
       <c r="G97" s="23"/>
       <c r="H97" s="24"/>
       <c r="J97" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="2:10" ht="17" thickBot="1">
       <c r="B98" s="21"/>
       <c r="C98" s="23"/>
       <c r="D98" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F98" s="31"/>
       <c r="G98" s="23"/>
       <c r="H98" s="24"/>
       <c r="J98" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="2:10">

--- a/doc/java中级试做式样书20190206.xlsx
+++ b/doc/java中级试做式样书20190206.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/开发环境/git/JavaMiddleClassSampleSource/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B8A18F38-6065-D448-965F-548294C10A37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12886D1E-1B27-BD45-AE41-3B7D6633109D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
   </bookViews>
   <sheets>
     <sheet name="数学建模" sheetId="1" r:id="rId1"/>
     <sheet name="Java中级式样书20190206" sheetId="2" r:id="rId2"/>
+    <sheet name="手顺" sheetId="3" r:id="rId3"/>
+    <sheet name="Controller" sheetId="4" r:id="rId4"/>
+    <sheet name="JSP" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">数学建模!$A$1:$P$60</definedName>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="153">
   <si>
     <t>契约ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,13 +528,125 @@
   </si>
   <si>
     <t>终了日</t>
+  </si>
+  <si>
+    <t>1, 先做成【契约检索.jsp】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照式样书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 做成【契约Controller.java】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照其他画面的Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注、先完成【检索事件】，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 做成【契约Service.java】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照其他画面的Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注、先完成【检索处理】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是完成FileName的定义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 【文件DB.java】不用做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早就说过，项目不是从零开始做的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是你要明白它是干什么用的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，当没有明显错误时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，@Controller 是必须的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了log出力，必须的定义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意味着当你【http://localhost:8080/JavaMiddleClassCompleteSource/契约】时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会出现【契约检索】画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你想在页面上显示系统时间，可以用它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不想要，就删了吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点！这回会返回【契约检索.jsp】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意味着当你【http://localhost:8080/JavaMiddleClassCompleteSource/契约getTestData】时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会触发【检索处理】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是调用【契约Service.java】的检索处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后把结果返给页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当检索按钮按下时，会触发这段代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜集页面的入力信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据送给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【http://localhost:8080/JavaMiddleClassCompleteSource/契约getTestData】这个URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -588,6 +703,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -828,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +1095,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2947,6 +3078,1452 @@
             </a:rPr>
             <a:t>隐藏项</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4168B325-5083-864E-8848-C9E478F8F61F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="228600"/>
+          <a:ext cx="7772400" cy="8459406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD059F1-3393-504F-8016-2395E4209D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="7518400"/>
+          <a:ext cx="5727700" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23957481-47D6-604E-BE16-EB86312F0454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="6400800"/>
+          <a:ext cx="5727700" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C482397B-DE0C-6248-AB57-FDFDCC8325BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="4419600"/>
+          <a:ext cx="5727700" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8D8D35-BBBC-D04B-9901-150386B58C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="2514600"/>
+          <a:ext cx="5727700" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7C50AF-A921-9D48-9965-C43D0BB0BEC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="203200"/>
+          <a:ext cx="1244600" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="66675">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E2E2CA-A119-4B4B-A10C-91B3EAB4ECCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="330200"/>
+          <a:ext cx="9829800" cy="6731000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B270522-D255-C440-A754-592D146F64DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727200" y="3924300"/>
+          <a:ext cx="1930400" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29569EBA-F6C8-574D-A6ED-E6BE4BD8EAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6540500" y="4152900"/>
+          <a:ext cx="1930400" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BBE8BB-B535-9F40-9C3D-2367F495F57B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="7543800"/>
+          <a:ext cx="9144000" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43433EC5-EFAC-5D44-97FB-34BFF96B2777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="9156700"/>
+          <a:ext cx="1930400" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="66675">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969BD234-9BA2-A44D-A646-8DB9BE278BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5321300" y="9156700"/>
+          <a:ext cx="1930400" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="66675">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A2318D-758E-B94D-B733-E8A7513CC1AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="4940300"/>
+          <a:ext cx="3022600" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0FA2EC-4173-7941-BD52-B2F7692A460D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5194300" y="9588500"/>
+          <a:ext cx="1930400" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="66675">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="椭圆 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22A6B64-6CD8-D643-A152-82FBC644EBC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3403600" y="3695700"/>
+          <a:ext cx="584200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="椭圆 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA76A85-2270-4143-8848-C1D8AC599F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6908800" y="8763000"/>
+          <a:ext cx="584200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="椭圆 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F79CC4-043B-0B45-B044-4173C00BBD04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242300" y="3822700"/>
+          <a:ext cx="584200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="椭圆 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF76B16-DC24-8C42-B169-6C07428B85AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4432300" y="8674100"/>
+          <a:ext cx="584200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="椭圆 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D6D779-71F8-5E45-B611-2D27094F7239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="4889500"/>
+          <a:ext cx="584200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="椭圆 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF1C451-F003-6844-B76E-2235E69219B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="9804400"/>
+          <a:ext cx="584200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="椭圆 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E38C06-0B4C-4E40-8354-CC898FE27DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4330700" y="11049000"/>
+          <a:ext cx="584200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="椭圆 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EDBBE6-CD7B-0847-AF54-D3B93FA8F44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3987800" y="5473700"/>
+          <a:ext cx="584200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4D98FA-6822-C048-90A1-33A7908AED17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="5219700"/>
+          <a:ext cx="1651000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3254,7 +4831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB3C938-E96B-0748-B609-B11225872B2D}">
   <dimension ref="A2:M60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3738,7 +5315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2F298-F814-AA41-A4D0-B91574A5D1F7}">
   <dimension ref="B2:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -5169,4 +6746,213 @@
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8D49D6-8B1E-9C45-AF61-C4B8DE4567C6}">
+  <dimension ref="B2:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="48"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="48"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="D26" s="49">
+        <v>43506</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539EBE2F-E7F5-1A4F-B95A-C6DB827E3880}">
+  <dimension ref="L2:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="12:12">
+      <c r="L2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="12:12">
+      <c r="L5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="12:12">
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="12:12">
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="12:12">
+      <c r="L23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12">
+      <c r="L35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12">
+      <c r="L36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12">
+      <c r="L40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12">
+      <c r="L41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC74760-F427-F34C-A008-46DD23647FA6}">
+  <dimension ref="N3:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="14:14">
+      <c r="N3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="14:14">
+      <c r="N7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14">
+      <c r="N17" s="50"/>
+    </row>
+    <row r="21" spans="14:14">
+      <c r="N21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14">
+      <c r="N22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/java中级试做式样书20190206.xlsx
+++ b/doc/java中级试做式样书20190206.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassSampleSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12886D1E-1B27-BD45-AE41-3B7D6633109D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{29206D2C-019D-D74E-8B9B-DE34938A78F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F77288E6-83CA-BA4B-9FC5-64AD3314CC34}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
+    <workbookView xWindow="3060" yWindow="540" windowWidth="26060" windowHeight="17440" activeTab="4" xr2:uid="{70A0B5AB-8FBD-AF41-991D-ED5EBED45B08}"/>
   </bookViews>
   <sheets>
     <sheet name="数学建模" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="JSP" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">数学建模!$A$1:$P$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">数学建模!$A$1:$P$53</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="117">
   <si>
     <t>契约ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>甲方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>案件契约情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>案件基本信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +181,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注，精算主要针对甲方的请求信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">        也可以是乙方公司提出给甲方公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">        这一块比较复杂，连加班打车，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        包宿住宿都会算进去，再说啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">        可以是技术者提给公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,184 +385,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>契约情报检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终了时间，指契约实际终止的时间，系统以此判断该契约是否活着，同删除flg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约ID，指系统自动对契约数据的采番ID，不受认为控制，是区别两契约的唯一标示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约CD，指人为给契约的编号指定，实际就是契约的名字。也是唯一的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体命名规则受各公司制约。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间，指契约有效的开始日，并不是登陆的日时。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约ID，用来表示双方的唯一标示，只在契约数据中有效，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与技术者ID，会社ID个字分别建立关联数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（隐藏项）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照按钮会直接启动缩小版的【契约者检索画面】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是这样就复杂了，可以直接输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（真正项目的话，契约双方需要检索入力。这样更安全。防止输入错误。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此处暂时不用实装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（真正提交的时候，需要契约ID来进行操作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（但，它与用户不发生实际关系，所以就隐藏了）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约实际终了日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注，精算。主要针对甲方的请求信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        这一块比较复杂，加班打车，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        差旅住宿都会算进去，以后再说吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该画面其实是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员契约情报</t>
-  </si>
-  <si>
-    <t>案件契约情报</t>
-  </si>
-  <si>
-    <t>两种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据契约种别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来区分的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会社契约情报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约案件信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会福利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约者会社区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色代表已经完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色代表正在进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色代表今后预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个颜色块都代表一个对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个对象都有唯一的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个对象都有一些属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个对象在数据库中都对应一个表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于是检索画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有日期与数值都要用区间值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约实际</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终了日</t>
+    <t>契约检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1, 先做成【契约检索.jsp】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2, 做成【契约Controller.java】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照其他画面的Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照其他画面的Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早就说过，项目不是从零开始做的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 【文件DB.java】不用做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是你要明白它是干什么用的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，当没有明显错误时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是完成FileName的定义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参照式样书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2, 做成【契约Controller.java】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照其他画面的Controller</t>
+    <t>3, 做成【契约Service.java】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，@Controller 是必须的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了log出力，必须的定义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意味着当你【http://localhost:8080/JavaMiddleClassCompleteSource/契约】时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会出现【契约检索】画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你想在页面上显示系统时间，可以用它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不想要，就删了吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点！这回会返回【契约检索.jsp】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意味着当你【http://localhost:8080/JavaMiddleClassCompleteSource/契约getTestData】时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会触发【检索处理】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是调用【契约Service.java】的检索处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后把结果返给页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当检索按钮按下时，会触发这段代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜集页面的入力信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据送给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【http://localhost:8080/JavaMiddleClassCompleteSource/契约getTestData】这个URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,95 +497,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3, 做成【契约Service.java】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照其他画面的Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注、先完成【检索处理】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要是完成FileName的定义。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4, 【文件DB.java】不用做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早就说过，项目不是从零开始做的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是你要明白它是干什么用的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5，当没有明显错误时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，@Controller 是必须的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了log出力，必须的定义。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意味着当你【http://localhost:8080/JavaMiddleClassCompleteSource/契约】时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会出现【契约检索】画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果你想在页面上显示系统时间，可以用它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果不想要，就删了吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点！这回会返回【契约检索.jsp】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意味着当你【http://localhost:8080/JavaMiddleClassCompleteSource/契约getTestData】时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会触发【检索处理】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是调用【契约Service.java】的检索处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后把结果返给页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当检索按钮按下时，会触发这段代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜集页面的入力信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将数据送给</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【http://localhost:8080/JavaMiddleClassCompleteSource/契约getTestData】这个URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,10 +822,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -995,6 +860,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1068,41 +936,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,15 +973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>110066</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>651934</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1149,8 +996,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1769533" y="1286933"/>
-          <a:ext cx="2201334" cy="1430868"/>
+          <a:off x="2603500" y="431800"/>
+          <a:ext cx="2298700" cy="939800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1178,16 +1025,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101602</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>165103</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1202,8 +1049,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6714067" y="1329267"/>
-          <a:ext cx="1684868" cy="1477436"/>
+          <a:off x="6604000" y="381000"/>
+          <a:ext cx="2578100" cy="1003300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1233,14 +1080,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>48228</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>659114</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1255,8 +1102,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1706623" y="4268165"/>
-          <a:ext cx="1436225" cy="819070"/>
+          <a:off x="2527300" y="1600200"/>
+          <a:ext cx="1562100" cy="2120900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1284,16 +1131,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15111</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>110068</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>821267</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1308,8 +1155,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5823244" y="4377268"/>
-          <a:ext cx="2465623" cy="753532"/>
+          <a:off x="4787900" y="2870200"/>
+          <a:ext cx="1079500" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1339,13 +1186,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>40190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>281330</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1390,16 +1237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>440266</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71484</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>442838</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586772</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1414,8 +1261,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8737599" y="3729084"/>
-          <a:ext cx="2572" cy="1435583"/>
+          <a:off x="6379580" y="2298861"/>
+          <a:ext cx="2572" cy="1419829"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1445,13 +1292,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>55033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1544,13 +1391,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>30238</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>46567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1566,8 +1413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11394319" y="5337024"/>
-          <a:ext cx="1650395" cy="1195614"/>
+          <a:off x="11315700" y="3856567"/>
+          <a:ext cx="1638300" cy="1693333"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1643,13 +1490,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>579967</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1747,15 +1594,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>447876</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>148542</xdr:rowOff>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>244676</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161242</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1770,8 +1617,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="447876" y="5172276"/>
-          <a:ext cx="13043382" cy="12700"/>
+          <a:off x="431800" y="3327400"/>
+          <a:ext cx="13004800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1799,13 +1646,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1850,13 +1697,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1897,59 +1744,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>338667</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直线箭头连接符 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9799E668-C404-F044-95F6-34BEF435DA1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6146800" y="2260600"/>
-          <a:ext cx="16933" cy="482601"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1959,13 +1753,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2055,13 +1849,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2151,13 +1945,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2247,13 +2041,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2339,750 +2133,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>614516</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1024194</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>109247</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41446183-B7D1-3949-9589-3F7AEF9E6365}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1433871" y="12740968"/>
-          <a:ext cx="5639893" cy="546236"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>隐藏项</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>44655</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600860</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>109247</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="圆角矩形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37882651-A3F0-C947-8837-E3C2BEAE9B98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5274870" y="19691828"/>
-          <a:ext cx="556205" cy="327742"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="74000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="83000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="30000"/>
-                <a:lumOff val="70000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>参照</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>44655</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>136559</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600860</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>27312</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="圆角矩形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E92F00-8069-8D4D-BC31-F383565E0E15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5274870" y="20483871"/>
-          <a:ext cx="556205" cy="327742"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="74000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="83000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="30000"/>
-                <a:lumOff val="70000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>参照</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>873979</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>177527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>559893</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>109248</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9A847D-5C4B-7943-91A2-06FB81B40F1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2512689" y="20961828"/>
-          <a:ext cx="4096774" cy="368710"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>隐藏项</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>805699</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>150215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>491613</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>81936</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矩形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B269A4E4-F336-9D47-B295-1BE768DE2C86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2444409" y="20060538"/>
-          <a:ext cx="4096774" cy="368710"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>隐藏项</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150215</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>191182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>706420</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>81934</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="圆角矩形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355BEDE6-0D72-E546-9018-6B7006BA3C92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5380430" y="7701935"/>
-          <a:ext cx="556205" cy="327741"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="74000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="83000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="30000"/>
-                <a:lumOff val="70000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>参照</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150215</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>150215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>706420</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>40967</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="圆角矩形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C542CB8-A012-0E4D-B628-1D1FD409D0CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5380430" y="8534946"/>
-          <a:ext cx="556205" cy="327741"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="74000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="83000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="30000"/>
-                <a:lumOff val="70000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>参照</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>218494</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>109247</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>122903</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>136559</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F60D07-AEA1-B94D-92C6-6E4C6DCE09E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1037849" y="8043333"/>
-          <a:ext cx="4315269" cy="464301"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>隐藏项</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>218494</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95591</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>122903</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>122903</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E47225-C9A4-F242-9539-F0A97BE6BD46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1037849" y="8903656"/>
-          <a:ext cx="4315269" cy="464301"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>隐藏项</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3106,7 +2156,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4168B325-5083-864E-8848-C9E478F8F61F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE42062-7B3E-E840-836D-9FAA23383F7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,7 +2200,7 @@
         <xdr:cNvPr id="3" name="圆角矩形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD059F1-3393-504F-8016-2395E4209D71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF95448D-06F9-884A-BC6D-6976543B258C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +2266,7 @@
         <xdr:cNvPr id="4" name="圆角矩形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23957481-47D6-604E-BE16-EB86312F0454}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90A58EC-AD7E-EA40-BBFF-18A0F6FBFDC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +2332,7 @@
         <xdr:cNvPr id="5" name="圆角矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C482397B-DE0C-6248-AB57-FDFDCC8325BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B0D41E-2723-9E4E-BE0C-9E15BACA219F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +2398,7 @@
         <xdr:cNvPr id="6" name="圆角矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8D8D35-BBBC-D04B-9901-150386B58C79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED1EDF8-3D45-4944-A70C-0E0131D81D99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +2464,7 @@
         <xdr:cNvPr id="7" name="圆角矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7C50AF-A921-9D48-9965-C43D0BB0BEC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B3067C-0CB3-D443-A562-5ED8A50606DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +2535,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E2E2CA-A119-4B4B-A10C-91B3EAB4ECCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9974B30A-1833-544D-AD13-6A795B3CE868}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3526,10 +2576,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="圆角矩形 2">
+        <xdr:cNvPr id="4" name="圆角矩形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B270522-D255-C440-A754-592D146F64DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EAECD5-0A77-F643-BE63-C784C39D8E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3592,10 +2642,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="圆角矩形 3">
+        <xdr:cNvPr id="5" name="圆角矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29569EBA-F6C8-574D-A6ED-E6BE4BD8EAE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72907E0F-A76C-944E-BEDD-D8EF5569B68D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3658,10 +2708,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BBE8BB-B535-9F40-9C3D-2367F495F57B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5878BFDE-8CC5-D945-A586-402347248E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3702,10 +2752,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="圆角矩形 5">
+        <xdr:cNvPr id="7" name="圆角矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43433EC5-EFAC-5D44-97FB-34BFF96B2777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869CC11A-AFD1-2E47-B23A-C17687C6D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3768,10 +2818,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="圆角矩形 6">
+        <xdr:cNvPr id="8" name="圆角矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969BD234-9BA2-A44D-A646-8DB9BE278BBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EA6FEE-51DA-7848-B13B-35D13656DDF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3834,10 +2884,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="圆角矩形 7">
+        <xdr:cNvPr id="9" name="圆角矩形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A2318D-758E-B94D-B733-E8A7513CC1AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827585F3-53B5-FF45-AB21-D629A5C44CF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,10 +2950,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="圆角矩形 8">
+        <xdr:cNvPr id="10" name="圆角矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0FA2EC-4173-7941-BD52-B2F7692A460D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021F2063-4DFF-B143-A344-CB8ED38B1356}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3966,10 +3016,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="椭圆 9">
+        <xdr:cNvPr id="11" name="椭圆 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22A6B64-6CD8-D643-A152-82FBC644EBC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086E2776-9D7A-064C-AE21-E5B062BFBB41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,10 +3080,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="椭圆 10">
+        <xdr:cNvPr id="12" name="椭圆 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA76A85-2270-4143-8848-C1D8AC599F35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4E63A7-1834-BF4E-BC0F-9D5306C816D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4094,10 +3144,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="椭圆 11">
+        <xdr:cNvPr id="14" name="椭圆 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F79CC4-043B-0B45-B044-4173C00BBD04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEDCCA8-C74A-EC4C-B895-70FAE510C388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4158,10 +3208,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="椭圆 12">
+        <xdr:cNvPr id="15" name="椭圆 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF76B16-DC24-8C42-B169-6C07428B85AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FAE23A-622A-9B41-A540-E8522BB81441}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4222,10 +3272,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="椭圆 13">
+        <xdr:cNvPr id="16" name="椭圆 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D6D779-71F8-5E45-B611-2D27094F7239}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BFDE43-FF95-7842-8856-A3CD4454EE28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4286,10 +3336,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="椭圆 14">
+        <xdr:cNvPr id="17" name="椭圆 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF1C451-F003-6844-B76E-2235E69219B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CD4959-24D6-E346-A0E8-4D4AE256AC24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4350,10 +3400,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="椭圆 15">
+        <xdr:cNvPr id="18" name="椭圆 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E38C06-0B4C-4E40-8354-CC898FE27DEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F88135-8F3C-1740-9924-B80A62E851EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4414,10 +3464,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="椭圆 16">
+        <xdr:cNvPr id="19" name="椭圆 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EDBBE6-CD7B-0847-AF54-D3B93FA8F44E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1542A683-4D99-B444-BBCA-832DE76D5060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4478,10 +3528,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="圆角矩形 17">
+        <xdr:cNvPr id="20" name="圆角矩形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4D98FA-6822-C048-90A1-33A7908AED17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDC7DA0-0C39-F441-8AB1-C1FCBCF16982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4829,478 +3879,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB3C938-E96B-0748-B609-B11225872B2D}">
-  <dimension ref="A2:M60"/>
+  <dimension ref="B2:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView view="pageBreakPreview" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    <row r="2" spans="2:13">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="H11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4" t="s">
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="D21" s="3"/>
+      <c r="H21" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="47" t="s">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="K27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="K28" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" t="s">
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="K29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="D30" s="3"/>
-      <c r="K30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="E31" s="3"/>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="32" spans="2:11">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="21">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="H34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="2:10" ht="21">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="2:10" ht="21">
       <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>26</v>
       </c>
+      <c r="H36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>36</v>
-      </c>
+    <row r="39" spans="2:10" ht="21">
+      <c r="B39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:10" ht="21">
+      <c r="B40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="2:10" ht="21">
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="H41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="2:10" ht="21">
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="2:10" ht="21">
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
+      <c r="B41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="9"/>
     </row>
     <row r="46" spans="2:10" ht="21">
-      <c r="B46" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="7"/>
+      <c r="B46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="2:10" ht="21">
-      <c r="B47" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="7"/>
+      <c r="B47" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="2:10" ht="21">
-      <c r="B48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="7"/>
+      <c r="B48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="2:3" ht="21">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="51" spans="2:3" ht="21">
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="21">
+      <c r="B52" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="53" spans="2:3" ht="21">
-      <c r="B53" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="2:3" ht="21">
-      <c r="B54" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="2:3" ht="21">
-      <c r="B55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="2:3" ht="21">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="58" spans="2:3" ht="21">
-      <c r="B58" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="21">
-      <c r="B59" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="21">
-      <c r="B60" s="7" t="s">
-        <v>42</v>
+      <c r="B53" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5313,10 +4294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2F298-F814-AA41-A4D0-B91574A5D1F7}">
-  <dimension ref="B2:N103"/>
+  <dimension ref="B2:M95"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5325,1517 +4306,1339 @@
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17" thickBot="1">
+    <row r="2" spans="2:13" ht="17" thickBot="1">
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="2:14" ht="31">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="2:13" ht="31">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="2:13" ht="17" thickBot="1">
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="2:13" ht="17" thickBot="1">
+      <c r="B6" s="24"/>
+      <c r="C6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="2:13" ht="17" thickBot="1">
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1">
+      <c r="B8" s="24"/>
+      <c r="C8" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="2:13" ht="17" thickBot="1">
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1">
+      <c r="B10" s="24"/>
+      <c r="C10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>45</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="2:13" ht="17" thickBot="1">
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="2:13" ht="17" thickBot="1">
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="2:13" ht="17" thickBot="1">
+      <c r="B13" s="24"/>
+      <c r="D13" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="2:13" ht="17" thickBot="1">
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="2:13" ht="17" thickBot="1">
+      <c r="B15" s="24"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="2:13" ht="17" thickBot="1">
+      <c r="B17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="2:13" ht="17" thickBot="1">
+      <c r="B18" s="24"/>
+      <c r="C18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="2:13" ht="17" thickBot="1">
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="2:13" ht="17" thickBot="1">
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="2:13" ht="17" thickBot="1">
+      <c r="B21" s="24"/>
+      <c r="C21" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="2:13" ht="17" thickBot="1">
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="2:13" ht="17" thickBot="1">
+      <c r="B24" s="24"/>
+      <c r="C24" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="2:13" ht="17" thickBot="1">
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="2:13" ht="17" thickBot="1">
+      <c r="B26" s="24"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="2:13" ht="17" thickBot="1">
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="2:13" ht="17" thickBot="1">
+      <c r="B28" s="24"/>
+      <c r="C28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="2:13" ht="17" thickBot="1">
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="2:13" ht="17" thickBot="1">
+      <c r="B30" s="24"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="2:13" ht="17" thickBot="1">
+      <c r="B31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="2:13" ht="17" thickBot="1">
+      <c r="B32" s="24"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="2:13" ht="17" thickBot="1">
+      <c r="B33" s="24"/>
+      <c r="C33" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="2:13" ht="17" thickBot="1">
+      <c r="B34" s="24"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="2:13" ht="17" thickBot="1">
+      <c r="B35" s="24"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="2:13" ht="17" thickBot="1">
+      <c r="B36" s="24"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="2:13" ht="17" thickBot="1">
+      <c r="B37" s="24"/>
+      <c r="C37" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="2:13" ht="17" thickBot="1">
+      <c r="B38" s="24"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="2:13" ht="17" thickBot="1">
+      <c r="B39" s="24"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="24"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="24"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="24"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="24"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="24"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="24"/>
+      <c r="C45" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="24"/>
+      <c r="C46" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="24"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="2:13" ht="17" thickBot="1">
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="31"/>
+    </row>
+    <row r="52" spans="2:8" ht="17" thickBot="1">
+      <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="2:14" ht="17" thickBot="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="2:14" ht="17" thickBot="1">
-      <c r="B8" s="21"/>
-      <c r="C8" s="23" t="s">
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="2:8" ht="31">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="24"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="2:8" ht="17" thickBot="1">
+      <c r="B56" s="24"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="2:8" ht="17" thickBot="1">
+      <c r="B57" s="24"/>
+      <c r="C57" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="43"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="2:8" ht="17" thickBot="1">
+      <c r="B58" s="24"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="2:8" ht="17" thickBot="1">
+      <c r="B59" s="24"/>
+      <c r="C59" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="2:8" ht="17" thickBot="1">
+      <c r="B60" s="24"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="2:8" ht="17" thickBot="1">
+      <c r="B61" s="24"/>
+      <c r="C61" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="13">
+        <v>45</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="2:8" ht="17" thickBot="1">
+      <c r="B62" s="24"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="2:8" ht="17" thickBot="1">
+      <c r="B63" s="24"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="2:8" ht="17" thickBot="1">
+      <c r="B64" s="24"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
+    </row>
+    <row r="65" spans="2:8" ht="17" thickBot="1">
+      <c r="B65" s="24"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="26"/>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="2:8" ht="17" thickBot="1">
+      <c r="B66" s="24"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="24"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="2:8" ht="17" thickBot="1">
+      <c r="B68" s="24"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="2:8" ht="17" thickBot="1">
+      <c r="B69" s="24"/>
+      <c r="C69" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" spans="2:8" ht="17" thickBot="1">
+      <c r="B70" s="24"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" spans="2:8" ht="17" thickBot="1">
+      <c r="B71" s="24"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" spans="2:8" ht="17" thickBot="1">
+      <c r="B72" s="24"/>
+      <c r="C72" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="24"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" spans="2:8" ht="17" thickBot="1">
+      <c r="B74" s="24"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="2:8" ht="17" thickBot="1">
+      <c r="B75" s="24"/>
+      <c r="C75" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="13">
+        <v>1</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" spans="2:8" ht="17" thickBot="1">
+      <c r="B76" s="24"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
+    </row>
+    <row r="77" spans="2:8" ht="17" thickBot="1">
+      <c r="B77" s="24"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+    </row>
+    <row r="78" spans="2:8" ht="17" thickBot="1">
+      <c r="B78" s="24"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" spans="2:8" ht="17" thickBot="1">
+      <c r="B79" s="24"/>
+      <c r="C79" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
+    </row>
+    <row r="80" spans="2:8" ht="17" thickBot="1">
+      <c r="B80" s="24"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="17" thickBot="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
-      <c r="N9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="17" thickBot="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="23" t="s">
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27"/>
+    </row>
+    <row r="81" spans="2:8" ht="17" thickBot="1">
+      <c r="B81" s="24"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="27"/>
+    </row>
+    <row r="82" spans="2:8" ht="17" thickBot="1">
+      <c r="B82" s="24"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+    </row>
+    <row r="83" spans="2:8" ht="17" thickBot="1">
+      <c r="B83" s="24"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+    </row>
+    <row r="84" spans="2:8" ht="17" thickBot="1">
+      <c r="B84" s="24"/>
+      <c r="C84" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" s="34"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+    </row>
+    <row r="85" spans="2:8" ht="17" thickBot="1">
+      <c r="B85" s="24"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
+    </row>
+    <row r="86" spans="2:8" ht="17" thickBot="1">
+      <c r="B86" s="24"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="34"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
+    </row>
+    <row r="87" spans="2:8" ht="17" thickBot="1">
+      <c r="B87" s="24"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
+    </row>
+    <row r="88" spans="2:8" ht="17" thickBot="1">
+      <c r="B88" s="24"/>
+      <c r="C88" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="11">
-        <v>45</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="11">
-        <v>85</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="2:14" ht="17" thickBot="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
-    </row>
-    <row r="12" spans="2:14" ht="17" thickBot="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="2:14" ht="17" thickBot="1">
-      <c r="B13" s="21"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="2:14" ht="17" thickBot="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="21"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="21"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="2:14" ht="17" thickBot="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
-    </row>
-    <row r="18" spans="2:14" ht="17" thickBot="1">
-      <c r="B18" s="21"/>
-      <c r="C18" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="2:14" ht="17" thickBot="1">
-      <c r="B19" s="21"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="2:14" ht="17" thickBot="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" spans="2:14" ht="17" thickBot="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="24"/>
-      <c r="N21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="21"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
-      <c r="N22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="17" thickBot="1">
-      <c r="B23" s="21"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-    </row>
-    <row r="24" spans="2:14" ht="17" thickBot="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="11">
-        <v>3</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24"/>
-      <c r="N24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="17" thickBot="1">
-      <c r="B25" s="21"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-      <c r="N25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="17" thickBot="1">
-      <c r="B26" s="21"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="2:14" ht="17" thickBot="1">
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="2:14" ht="17" thickBot="1">
-      <c r="B28" s="21"/>
-      <c r="C28" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="24"/>
-      <c r="N28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="21"/>
-      <c r="C29" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
-      <c r="N29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="17" thickBot="1">
-      <c r="B30" s="21"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="2:14" ht="17" thickBot="1">
-      <c r="B31" s="21"/>
-      <c r="C31" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="2:14" ht="17" thickBot="1">
-      <c r="B32" s="21"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="2:13" ht="17" thickBot="1">
-      <c r="B33" s="21"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="24"/>
-    </row>
-    <row r="34" spans="2:13" ht="17" thickBot="1">
-      <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" s="23"/>
-      <c r="M34" s="24"/>
-    </row>
-    <row r="35" spans="2:13" ht="17" thickBot="1">
-      <c r="B35" s="21"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="24"/>
-    </row>
-    <row r="36" spans="2:13" ht="17" thickBot="1">
-      <c r="B36" s="21"/>
-      <c r="C36" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="24"/>
-    </row>
-    <row r="37" spans="2:13" ht="17" thickBot="1">
-      <c r="B37" s="21"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="2:13" ht="17" thickBot="1">
-      <c r="B38" s="21"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="24"/>
-    </row>
-    <row r="39" spans="2:13" ht="17" thickBot="1">
-      <c r="B39" s="21"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="2:13" ht="17" thickBot="1">
-      <c r="B40" s="21"/>
-      <c r="C40" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="30" t="s">
+      <c r="D88" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="24"/>
-    </row>
-    <row r="41" spans="2:13" ht="17" thickBot="1">
-      <c r="B41" s="21"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="24"/>
-    </row>
-    <row r="42" spans="2:13" ht="17" thickBot="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="24"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="21"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="24"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="21"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="21"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="24"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="21"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="24"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="21"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="24"/>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="21"/>
-      <c r="C48" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K48" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="L48" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="M48" s="24"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="21"/>
-      <c r="C49" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="34" t="s">
+      <c r="E88" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="34" t="s">
+      <c r="F88" s="34"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27"/>
+    </row>
+    <row r="89" spans="2:8" ht="17" thickBot="1">
+      <c r="B89" s="24"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
+    </row>
+    <row r="90" spans="2:8" ht="17" thickBot="1">
+      <c r="B90" s="24"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="K49" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="L49" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="M49" s="24"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="21"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="24"/>
-    </row>
-    <row r="51" spans="2:13" ht="17" thickBot="1">
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="28"/>
-    </row>
-    <row r="55" spans="2:13" ht="17" thickBot="1">
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-    </row>
-    <row r="57" spans="2:13" ht="31">
-      <c r="B57" s="21"/>
-      <c r="C57" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
-    </row>
-    <row r="58" spans="2:13">
-      <c r="B58" s="21"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-    </row>
-    <row r="59" spans="2:13" ht="17" thickBot="1">
-      <c r="B59" s="21"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="24"/>
-      <c r="J59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" ht="17" thickBot="1">
-      <c r="B60" s="21"/>
-      <c r="C60" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="24"/>
-      <c r="J60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" ht="17" thickBot="1">
-      <c r="B61" s="21"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
-    </row>
-    <row r="62" spans="2:13" ht="17" thickBot="1">
-      <c r="B62" s="21"/>
-      <c r="C62" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
-      <c r="J62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" ht="17" thickBot="1">
-      <c r="B63" s="21"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="K63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" ht="17" thickBot="1">
-      <c r="B64" s="21"/>
-      <c r="C64" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
-    </row>
-    <row r="65" spans="2:14" ht="17" thickBot="1">
-      <c r="B65" s="21"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
-      <c r="J65" t="s">
-        <v>103</v>
-      </c>
-      <c r="L65" t="s">
-        <v>1</v>
-      </c>
-      <c r="N65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" ht="17" thickBot="1">
-      <c r="B66" s="21"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="J66" t="s">
-        <v>107</v>
-      </c>
-      <c r="L66" t="s">
-        <v>104</v>
-      </c>
-      <c r="N66" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" ht="17" thickBot="1">
-      <c r="B67" s="21"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="J67" t="s">
-        <v>108</v>
-      </c>
-      <c r="L67" t="s">
-        <v>105</v>
-      </c>
-      <c r="N67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" ht="17" thickBot="1">
-      <c r="B68" s="21"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
-      <c r="J68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" ht="17" thickBot="1">
-      <c r="B69" s="21"/>
-      <c r="C69" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="11">
-        <v>45</v>
-      </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="24"/>
-    </row>
-    <row r="70" spans="2:14" ht="17" thickBot="1">
-      <c r="B70" s="21"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="J70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" ht="17" thickBot="1">
-      <c r="B71" s="21"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
-      <c r="J71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" ht="17" thickBot="1">
-      <c r="B72" s="21"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" s="23"/>
-      <c r="H72" s="24"/>
-    </row>
-    <row r="73" spans="2:14" ht="17" thickBot="1">
-      <c r="B73" s="21"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" s="23"/>
-      <c r="H73" s="24"/>
-    </row>
-    <row r="74" spans="2:14" ht="17" thickBot="1">
-      <c r="B74" s="21"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G74" s="23"/>
-      <c r="H74" s="24"/>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="21"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="24"/>
-    </row>
-    <row r="76" spans="2:14" ht="17" thickBot="1">
-      <c r="B76" s="21"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
-    </row>
-    <row r="77" spans="2:14" ht="17" thickBot="1">
-      <c r="B77" s="21"/>
-      <c r="C77" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="24"/>
-    </row>
-    <row r="78" spans="2:14" ht="17" thickBot="1">
-      <c r="B78" s="21"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="24"/>
-    </row>
-    <row r="79" spans="2:14">
-      <c r="B79" s="21"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="24"/>
-    </row>
-    <row r="80" spans="2:14" ht="17" thickBot="1">
-      <c r="B80" s="21"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="24"/>
-    </row>
-    <row r="81" spans="2:11" ht="17" thickBot="1">
-      <c r="B81" s="21"/>
-      <c r="C81" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="24"/>
-      <c r="J81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="21"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="24"/>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83" s="21"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="24"/>
-    </row>
-    <row r="84" spans="2:11" ht="17" thickBot="1">
-      <c r="B84" s="21"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="24"/>
-    </row>
-    <row r="85" spans="2:11" ht="17" thickBot="1">
-      <c r="B85" s="21"/>
-      <c r="C85" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D85" s="11">
-        <v>1</v>
-      </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85" s="23"/>
-      <c r="H85" s="24"/>
-    </row>
-    <row r="86" spans="2:11" ht="17" thickBot="1">
-      <c r="B86" s="21"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G86" s="23"/>
-      <c r="H86" s="24"/>
-    </row>
-    <row r="87" spans="2:11" ht="17" thickBot="1">
-      <c r="B87" s="21"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G87" s="23"/>
-      <c r="H87" s="24"/>
-    </row>
-    <row r="88" spans="2:11" ht="17" thickBot="1">
-      <c r="B88" s="21"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="24"/>
-    </row>
-    <row r="89" spans="2:11" ht="17" thickBot="1">
-      <c r="B89" s="21"/>
-      <c r="C89" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
-      <c r="J89" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="21"/>
-      <c r="C90" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="24"/>
-    </row>
-    <row r="91" spans="2:11" ht="17" thickBot="1">
-      <c r="B91" s="21"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="24"/>
-    </row>
-    <row r="92" spans="2:11" ht="17" thickBot="1">
-      <c r="B92" s="21"/>
-      <c r="C92" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E92" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="F92" s="29"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="24"/>
-      <c r="J92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" ht="17" thickBot="1">
-      <c r="B93" s="21"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="24"/>
-      <c r="J93" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" ht="17" thickBot="1">
-      <c r="B94" s="21"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F94" s="31"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="24"/>
-      <c r="J94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" ht="17" thickBot="1">
-      <c r="B95" s="21"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="24"/>
-      <c r="K95" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" ht="17" thickBot="1">
-      <c r="B96" s="21"/>
-      <c r="C96" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="F96" s="29"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="24"/>
-    </row>
-    <row r="97" spans="2:10" ht="17" thickBot="1">
-      <c r="B97" s="21"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="24"/>
-      <c r="J97" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" ht="17" thickBot="1">
-      <c r="B98" s="21"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F98" s="31"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="24"/>
-      <c r="J98" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="21"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="24"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="21"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="24"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="21"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="24"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="21"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="24"/>
-    </row>
-    <row r="103" spans="2:10" ht="17" thickBot="1">
-      <c r="B103" s="26"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="28"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="27"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="24"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="24"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="24"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="24"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+    </row>
+    <row r="95" spans="2:8" ht="17" thickBot="1">
+      <c r="B95" s="29"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="53" max="16383" man="1"/>
+    <brk id="50" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8D49D6-8B1E-9C45-AF61-C4B8DE4567C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4D6557-9209-434A-9566-2E756F96A4AE}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="C8" s="48" t="s">
-        <v>129</v>
+      <c r="C8" s="44" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="C9" s="48"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="C10" s="48"/>
+      <c r="C10" s="44"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="D26" s="49">
+      <c r="D26" s="46">
         <v>43506</v>
       </c>
     </row>
@@ -6846,68 +5649,68 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539EBE2F-E7F5-1A4F-B95A-C6DB827E3880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2BCAD-3364-CB48-85EC-E4FF44ADF6F7}">
   <dimension ref="L2:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="12:12">
       <c r="L2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="12:12">
       <c r="L5" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="12:12">
       <c r="L14" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="12:12">
       <c r="L15" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="12:12">
       <c r="L35" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="12:12">
       <c r="L36" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="12:12">
       <c r="L40" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="12:12">
       <c r="L41" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -6918,36 +5721,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC74760-F427-F34C-A008-46DD23647FA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750880FC-67F7-5D4E-AC23-CE5A5B835631}">
   <dimension ref="N3:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="3" spans="14:14">
       <c r="N3" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="14:14">
       <c r="N7" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="14:14">
-      <c r="N17" s="50"/>
+      <c r="N17" s="45"/>
     </row>
     <row r="21" spans="14:14">
       <c r="N21" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="14:14">
       <c r="N22" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
